--- a/games/nexonjojo/jojo.xlsx
+++ b/games/nexonjojo/jojo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="631">
   <si>
     <t>조조전 장수</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>공손월</t>
+  </si>
+  <si>
+    <t>대현량사의 패</t>
   </si>
   <si>
     <t>진류</t>
@@ -5164,7 +5167,7 @@
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" t="s" s="16">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s" s="17">
         <v>7</v>
@@ -5176,7 +5179,7 @@
         <v>16</v>
       </c>
       <c r="F34" t="s" s="7">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G34" t="s" s="38">
         <v>195</v>
@@ -5188,7 +5191,7 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="35">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K34" t="s" s="35">
         <v>23</v>
@@ -5200,13 +5203,13 @@
         <v>46</v>
       </c>
       <c r="N34" t="s" s="35">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O34" t="s" s="35">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P34" t="s" s="35">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="36">
@@ -5220,22 +5223,22 @@
         <v>16</v>
       </c>
       <c r="B35" t="s" s="42">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s" s="43">
         <v>16</v>
       </c>
       <c r="D35" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E35" t="s" s="19">
         <v>16</v>
       </c>
       <c r="F35" t="s" s="7">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G35" t="s" s="38">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H35" t="s" s="35">
         <v>54</v>
@@ -5244,7 +5247,7 @@
         <v>30</v>
       </c>
       <c r="J35" t="s" s="35">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s" s="35">
         <v>23</v>
@@ -5262,7 +5265,7 @@
         <v>68</v>
       </c>
       <c r="P35" t="s" s="35">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="36">
@@ -5288,10 +5291,10 @@
         <v>16</v>
       </c>
       <c r="F36" t="s" s="7">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G36" t="s" s="38">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H36" t="s" s="35">
         <v>54</v>
@@ -5300,7 +5303,7 @@
         <v>100</v>
       </c>
       <c r="J36" t="s" s="35">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K36" t="s" s="35">
         <v>40</v>
@@ -5312,10 +5315,10 @@
         <v>46</v>
       </c>
       <c r="N36" t="s" s="35">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O36" t="s" s="35">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -5340,10 +5343,10 @@
         <v>16</v>
       </c>
       <c r="F37" t="s" s="7">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G37" t="s" s="38">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H37" t="s" s="35">
         <v>54</v>
@@ -5352,7 +5355,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="35">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s" s="35">
         <v>64</v>
@@ -5364,13 +5367,13 @@
         <v>46</v>
       </c>
       <c r="N37" t="s" s="35">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O37" t="s" s="35">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P37" t="s" s="35">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="36">
@@ -5384,7 +5387,7 @@
         <v>16</v>
       </c>
       <c r="B38" t="s" s="27">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s" s="38">
         <v>16</v>
@@ -5396,10 +5399,10 @@
         <v>16</v>
       </c>
       <c r="F38" t="s" s="7">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G38" t="s" s="38">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H38" t="s" s="35">
         <v>54</v>
@@ -5408,7 +5411,7 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="35">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K38" t="s" s="35">
         <v>77</v>
@@ -5420,10 +5423,10 @@
         <v>46</v>
       </c>
       <c r="N38" t="s" s="35">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O38" t="s" s="35">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -5438,20 +5441,20 @@
         <v>16</v>
       </c>
       <c r="B39" t="s" s="42">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C39" t="s" s="35">
         <v>16</v>
       </c>
       <c r="D39" t="s" s="35">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" t="s" s="7">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G39" t="s" s="38">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H39" t="s" s="35">
         <v>29</v>
@@ -5460,7 +5463,7 @@
         <v>100</v>
       </c>
       <c r="J39" t="s" s="35">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K39" t="s" s="35">
         <v>23</v>
@@ -5472,13 +5475,13 @@
         <v>46</v>
       </c>
       <c r="N39" t="s" s="35">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O39" t="s" s="35">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P39" t="s" s="35">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q39" s="12"/>
       <c r="R39" s="36">
@@ -5492,7 +5495,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s" s="27">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C40" t="s" s="38">
         <v>16</v>
@@ -5502,10 +5505,10 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" t="s" s="7">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G40" t="s" s="38">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H40" t="s" s="35">
         <v>54</v>
@@ -5514,7 +5517,7 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="35">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K40" t="s" s="35">
         <v>23</v>
@@ -5526,10 +5529,10 @@
         <v>46</v>
       </c>
       <c r="N40" t="s" s="35">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O40" t="s" s="35">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -5544,7 +5547,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s" s="31">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C41" t="s" s="44">
         <v>16</v>
@@ -5554,10 +5557,10 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" t="s" s="7">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G41" t="s" s="38">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H41" t="s" s="35">
         <v>54</v>
@@ -5566,7 +5569,7 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="35">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K41" t="s" s="35">
         <v>56</v>
@@ -5578,16 +5581,16 @@
         <v>46</v>
       </c>
       <c r="N41" t="s" s="35">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O41" t="s" s="35">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P41" t="s" s="35">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q41" t="s" s="35">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R41" s="36">
         <v>91010887</v>
@@ -5598,7 +5601,7 @@
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" t="s" s="35">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C42" t="s" s="44">
         <v>16</v>
@@ -5608,10 +5611,10 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" t="s" s="7">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G42" t="s" s="38">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H42" t="s" s="35">
         <v>54</v>
@@ -5620,7 +5623,7 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="35">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K42" t="s" s="35">
         <v>23</v>
@@ -5632,13 +5635,13 @@
         <v>46</v>
       </c>
       <c r="N42" t="s" s="35">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O42" t="s" s="35">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P42" t="s" s="35">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q42" s="12"/>
       <c r="R42" s="36">
@@ -5648,9 +5651,11 @@
       <c r="T42" s="37"/>
     </row>
     <row r="43" ht="16" customHeight="1">
-      <c r="A43" s="2"/>
+      <c r="A43" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B43" t="s" s="40">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" t="s" s="23">
@@ -5660,10 +5665,10 @@
         <v>16</v>
       </c>
       <c r="F43" t="s" s="7">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G43" t="s" s="38">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H43" t="s" s="35">
         <v>29</v>
@@ -5672,7 +5677,7 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="35">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K43" t="s" s="35">
         <v>23</v>
@@ -5682,13 +5687,13 @@
         <v>3</v>
       </c>
       <c r="N43" t="s" s="35">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O43" t="s" s="35">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P43" t="s" s="35">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q43" s="12"/>
       <c r="R43" s="36">
@@ -5700,7 +5705,7 @@
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" t="s" s="27">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" t="s" s="42">
@@ -5710,10 +5715,10 @@
         <v>16</v>
       </c>
       <c r="F44" t="s" s="7">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G44" t="s" s="38">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H44" t="s" s="35">
         <v>29</v>
@@ -5732,13 +5737,13 @@
         <v>3</v>
       </c>
       <c r="N44" t="s" s="35">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O44" t="s" s="35">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P44" t="s" s="35">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q44" s="12"/>
       <c r="R44" s="36">
@@ -5750,7 +5755,7 @@
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" t="s" s="42">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" t="s" s="23">
@@ -5760,10 +5765,10 @@
         <v>16</v>
       </c>
       <c r="F45" t="s" s="7">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G45" t="s" s="38">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H45" t="s" s="35">
         <v>86</v>
@@ -5772,7 +5777,7 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="35">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K45" t="s" s="35">
         <v>77</v>
@@ -5784,10 +5789,10 @@
         <v>46</v>
       </c>
       <c r="N45" t="s" s="35">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O45" t="s" s="35">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
@@ -5800,7 +5805,7 @@
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" t="s" s="27">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" t="s" s="31">
@@ -5810,10 +5815,10 @@
         <v>16</v>
       </c>
       <c r="F46" t="s" s="7">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G46" t="s" s="38">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H46" t="s" s="35">
         <v>54</v>
@@ -5822,7 +5827,7 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="35">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K46" t="s" s="35">
         <v>40</v>
@@ -5832,13 +5837,13 @@
         <v>3</v>
       </c>
       <c r="N46" t="s" s="35">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O46" t="s" s="35">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P46" t="s" s="35">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q46" s="12"/>
       <c r="R46" s="36">
@@ -5854,7 +5859,7 @@
         <v>16</v>
       </c>
       <c r="B47" t="s" s="42">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C47" t="s" s="35">
         <v>16</v>
@@ -5866,10 +5871,10 @@
         <v>16</v>
       </c>
       <c r="F47" t="s" s="7">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G47" t="s" s="38">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H47" t="s" s="35">
         <v>29</v>
@@ -5878,7 +5883,7 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="35">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K47" t="s" s="35">
         <v>64</v>
@@ -5890,13 +5895,13 @@
         <v>46</v>
       </c>
       <c r="N47" t="s" s="35">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O47" t="s" s="35">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P47" t="s" s="35">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q47" s="12"/>
       <c r="R47" s="36">
@@ -5908,7 +5913,7 @@
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" t="s" s="27">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C48" t="s" s="38">
         <v>16</v>
@@ -5920,10 +5925,10 @@
         <v>16</v>
       </c>
       <c r="F48" t="s" s="7">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G48" t="s" s="38">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H48" t="s" s="35">
         <v>29</v>
@@ -5932,7 +5937,7 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="35">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K48" t="s" s="35">
         <v>23</v>
@@ -5944,10 +5949,10 @@
         <v>46</v>
       </c>
       <c r="N48" t="s" s="35">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O48" t="s" s="35">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
@@ -5962,7 +5967,7 @@
         <v>16</v>
       </c>
       <c r="B49" t="s" s="27">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C49" t="s" s="38">
         <v>16</v>
@@ -5974,10 +5979,10 @@
         <v>16</v>
       </c>
       <c r="F49" t="s" s="7">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G49" t="s" s="38">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H49" t="s" s="35">
         <v>54</v>
@@ -5986,7 +5991,7 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="35">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K49" t="s" s="35">
         <v>64</v>
@@ -5996,13 +6001,13 @@
         <v>3</v>
       </c>
       <c r="N49" t="s" s="35">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O49" t="s" s="35">
         <v>85</v>
       </c>
       <c r="P49" t="s" s="35">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q49" s="12"/>
       <c r="R49" s="36">
@@ -6018,7 +6023,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="s" s="31">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C50" t="s" s="44">
         <v>16</v>
@@ -6030,10 +6035,10 @@
         <v>16</v>
       </c>
       <c r="F50" t="s" s="7">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G50" t="s" s="38">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H50" t="s" s="35">
         <v>29</v>
@@ -6042,7 +6047,7 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="35">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K50" t="s" s="35">
         <v>77</v>
@@ -6052,10 +6057,10 @@
         <v>3</v>
       </c>
       <c r="N50" t="s" s="35">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O50" t="s" s="35">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -6070,7 +6075,7 @@
     <row r="51" ht="16" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" t="s" s="35">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C51" t="s" s="44">
         <v>16</v>
@@ -6082,10 +6087,10 @@
         <v>16</v>
       </c>
       <c r="F51" t="s" s="7">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G51" t="s" s="38">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H51" t="s" s="35">
         <v>20</v>
@@ -6094,7 +6099,7 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="35">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K51" t="s" s="35">
         <v>40</v>
@@ -6107,7 +6112,7 @@
         <v>142</v>
       </c>
       <c r="O51" t="s" s="35">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -6128,10 +6133,10 @@
         <v>16</v>
       </c>
       <c r="F52" t="s" s="7">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G52" t="s" s="38">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H52" t="s" s="35">
         <v>29</v>
@@ -6150,13 +6155,13 @@
         <v>3</v>
       </c>
       <c r="N52" t="s" s="35">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O52" t="s" s="35">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P52" t="s" s="35">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q52" s="12"/>
       <c r="R52" s="36">
@@ -6168,7 +6173,7 @@
     <row r="53" ht="16" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" t="s" s="16">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C53" t="s" s="17">
         <v>7</v>
@@ -6180,10 +6185,10 @@
         <v>16</v>
       </c>
       <c r="F53" t="s" s="7">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G53" t="s" s="38">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H53" t="s" s="35">
         <v>29</v>
@@ -6192,7 +6197,7 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="35">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K53" t="s" s="35">
         <v>23</v>
@@ -6202,13 +6207,13 @@
         <v>3</v>
       </c>
       <c r="N53" t="s" s="35">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O53" t="s" s="35">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P53" t="s" s="35">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q53" s="12"/>
       <c r="R53" s="36">
@@ -6230,16 +6235,16 @@
         <v>16</v>
       </c>
       <c r="D54" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E54" t="s" s="15">
         <v>16</v>
       </c>
       <c r="F54" t="s" s="7">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G54" t="s" s="38">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H54" t="s" s="35">
         <v>29</v>
@@ -6258,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="N54" t="s" s="35">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O54" t="s" s="35">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -6276,7 +6281,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s" s="42">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C55" t="s" s="35">
         <v>16</v>
@@ -6288,10 +6293,10 @@
         <v>16</v>
       </c>
       <c r="F55" t="s" s="7">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G55" t="s" s="38">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H55" t="s" s="35">
         <v>86</v>
@@ -6300,7 +6305,7 @@
         <v>30</v>
       </c>
       <c r="J55" t="s" s="35">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K55" t="s" s="35">
         <v>23</v>
@@ -6312,13 +6317,13 @@
         <v>46</v>
       </c>
       <c r="N55" t="s" s="35">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O55" t="s" s="35">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P55" t="s" s="35">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q55" s="12"/>
       <c r="R55" s="36">
@@ -6330,7 +6335,7 @@
     <row r="56" ht="16" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" t="s" s="27">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" t="s" s="40">
@@ -6340,10 +6345,10 @@
         <v>16</v>
       </c>
       <c r="F56" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G56" t="s" s="38">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H56" t="s" s="35">
         <v>86</v>
@@ -6352,7 +6357,7 @@
         <v>30</v>
       </c>
       <c r="J56" t="s" s="35">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K56" t="s" s="35">
         <v>64</v>
@@ -6362,13 +6367,13 @@
         <v>3</v>
       </c>
       <c r="N56" t="s" s="35">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O56" t="s" s="35">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P56" t="s" s="35">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q56" s="12"/>
       <c r="R56" s="36">
@@ -6382,7 +6387,7 @@
     <row r="57" ht="16" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" t="s" s="42">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C57" s="45"/>
       <c r="D57" t="s" s="23">
@@ -6392,10 +6397,10 @@
         <v>16</v>
       </c>
       <c r="F57" t="s" s="7">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G57" t="s" s="38">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H57" t="s" s="35">
         <v>54</v>
@@ -6404,7 +6409,7 @@
         <v>100</v>
       </c>
       <c r="J57" t="s" s="35">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K57" t="s" s="35">
         <v>64</v>
@@ -6416,13 +6421,13 @@
         <v>46</v>
       </c>
       <c r="N57" t="s" s="35">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O57" t="s" s="35">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P57" t="s" s="35">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q57" s="12"/>
       <c r="R57" s="36">
@@ -6448,10 +6453,10 @@
         <v>16</v>
       </c>
       <c r="F58" t="s" s="7">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G58" t="s" s="38">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H58" t="s" s="35">
         <v>20</v>
@@ -6460,7 +6465,7 @@
         <v>21</v>
       </c>
       <c r="J58" t="s" s="35">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K58" t="s" s="35">
         <v>23</v>
@@ -6470,13 +6475,13 @@
         <v>3</v>
       </c>
       <c r="N58" t="s" s="35">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O58" t="s" s="35">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P58" t="s" s="35">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q58" s="12"/>
       <c r="R58" s="36">
@@ -6492,20 +6497,20 @@
         <v>16</v>
       </c>
       <c r="B59" t="s" s="27">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" t="s" s="40">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E59" t="s" s="15">
         <v>16</v>
       </c>
       <c r="F59" t="s" s="7">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G59" t="s" s="38">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H59" t="s" s="35">
         <v>54</v>
@@ -6524,10 +6529,10 @@
         <v>3</v>
       </c>
       <c r="N59" t="s" s="35">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O59" t="s" s="35">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -6552,10 +6557,10 @@
         <v>16</v>
       </c>
       <c r="F60" t="s" s="7">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G60" t="s" s="38">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H60" t="s" s="35">
         <v>20</v>
@@ -6564,7 +6569,7 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="35">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K60" t="s" s="35">
         <v>77</v>
@@ -6576,10 +6581,10 @@
         <v>46</v>
       </c>
       <c r="N60" t="s" s="35">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O60" t="s" s="35">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -6594,7 +6599,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s" s="27">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s" s="38">
         <v>16</v>
@@ -6606,10 +6611,10 @@
         <v>16</v>
       </c>
       <c r="F61" t="s" s="7">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G61" t="s" s="38">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H61" t="s" s="35">
         <v>54</v>
@@ -6618,7 +6623,7 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="35">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K61" t="s" s="35">
         <v>56</v>
@@ -6630,16 +6635,16 @@
         <v>46</v>
       </c>
       <c r="N61" t="s" s="35">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O61" t="s" s="35">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P61" t="s" s="35">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q61" t="s" s="35">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R61" s="36">
         <v>9101010107</v>
@@ -6652,7 +6657,7 @@
     <row r="62" ht="16" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" t="s" s="31">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C62" t="s" s="35">
         <v>16</v>
@@ -6664,10 +6669,10 @@
         <v>16</v>
       </c>
       <c r="F62" t="s" s="7">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G62" t="s" s="38">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H62" t="s" s="35">
         <v>20</v>
@@ -6676,7 +6681,7 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="35">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K62" t="s" s="35">
         <v>40</v>
@@ -6686,10 +6691,10 @@
         <v>3</v>
       </c>
       <c r="N62" t="s" s="35">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O62" t="s" s="35">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -6704,7 +6709,7 @@
     <row r="63" ht="16" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" t="s" s="40">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C63" s="45"/>
       <c r="D63" t="s" s="23">
@@ -6714,10 +6719,10 @@
         <v>16</v>
       </c>
       <c r="F63" t="s" s="7">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G63" t="s" s="38">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H63" t="s" s="35">
         <v>54</v>
@@ -6726,7 +6731,7 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="35">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K63" t="s" s="35">
         <v>77</v>
@@ -6738,10 +6743,10 @@
         <v>46</v>
       </c>
       <c r="N63" t="s" s="35">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O63" t="s" s="35">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -6756,7 +6761,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s" s="27">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" t="s" s="42">
@@ -6766,10 +6771,10 @@
         <v>16</v>
       </c>
       <c r="F64" t="s" s="7">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G64" t="s" s="38">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H64" t="s" s="35">
         <v>54</v>
@@ -6778,7 +6783,7 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="35">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K64" t="s" s="35">
         <v>23</v>
@@ -6788,13 +6793,13 @@
         <v>3</v>
       </c>
       <c r="N64" t="s" s="35">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O64" t="s" s="35">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P64" t="s" s="35">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q64" s="12"/>
       <c r="R64" s="36">
@@ -6820,10 +6825,10 @@
         <v>16</v>
       </c>
       <c r="F65" t="s" s="7">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G65" t="s" s="38">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H65" t="s" s="35">
         <v>54</v>
@@ -6832,7 +6837,7 @@
         <v>38</v>
       </c>
       <c r="J65" t="s" s="35">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K65" t="s" s="35">
         <v>64</v>
@@ -6844,13 +6849,13 @@
         <v>46</v>
       </c>
       <c r="N65" t="s" s="35">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O65" t="s" s="35">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P65" t="s" s="35">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q65" s="12"/>
       <c r="R65" s="36">
@@ -6872,10 +6877,10 @@
         <v>16</v>
       </c>
       <c r="F66" t="s" s="7">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G66" t="s" s="38">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H66" t="s" s="35">
         <v>54</v>
@@ -6884,7 +6889,7 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="35">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K66" t="s" s="35">
         <v>40</v>
@@ -6896,10 +6901,10 @@
         <v>46</v>
       </c>
       <c r="N66" t="s" s="35">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O66" t="s" s="35">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -6918,10 +6923,10 @@
         <v>16</v>
       </c>
       <c r="F67" t="s" s="7">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G67" t="s" s="38">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H67" t="s" s="35">
         <v>29</v>
@@ -6930,7 +6935,7 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="35">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K67" t="s" s="35">
         <v>40</v>
@@ -6940,10 +6945,10 @@
         <v>3</v>
       </c>
       <c r="N67" t="s" s="35">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O67" t="s" s="35">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
@@ -6958,7 +6963,7 @@
     <row r="68" ht="16" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" t="s" s="16">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s" s="17">
         <v>7</v>
@@ -6970,10 +6975,10 @@
         <v>16</v>
       </c>
       <c r="F68" t="s" s="7">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G68" t="s" s="38">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H68" t="s" s="35">
         <v>54</v>
@@ -6982,7 +6987,7 @@
         <v>100</v>
       </c>
       <c r="J68" t="s" s="35">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K68" t="s" s="35">
         <v>40</v>
@@ -6994,10 +6999,10 @@
         <v>46</v>
       </c>
       <c r="N68" t="s" s="35">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O68" t="s" s="35">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -7014,7 +7019,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s" s="42">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C69" t="s" s="43">
         <v>16</v>
@@ -7026,10 +7031,10 @@
         <v>16</v>
       </c>
       <c r="F69" t="s" s="7">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G69" t="s" s="38">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H69" t="s" s="35">
         <v>54</v>
@@ -7038,7 +7043,7 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="35">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K69" t="s" s="35">
         <v>23</v>
@@ -7050,13 +7055,13 @@
         <v>46</v>
       </c>
       <c r="N69" t="s" s="35">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O69" t="s" s="35">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P69" t="s" s="35">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q69" s="12"/>
       <c r="R69" s="36">
@@ -7070,7 +7075,7 @@
     <row r="70" ht="16" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" t="s" s="7">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C70" t="s" s="41">
         <v>16</v>
@@ -7082,10 +7087,10 @@
         <v>16</v>
       </c>
       <c r="F70" t="s" s="7">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G70" t="s" s="38">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H70" t="s" s="35">
         <v>54</v>
@@ -7094,7 +7099,7 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="35">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K70" t="s" s="35">
         <v>56</v>
@@ -7106,16 +7111,16 @@
         <v>46</v>
       </c>
       <c r="N70" t="s" s="35">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O70" t="s" s="35">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P70" t="s" s="35">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q70" t="s" s="35">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R70" s="36">
         <v>91010888</v>
@@ -7138,10 +7143,10 @@
         <v>16</v>
       </c>
       <c r="F71" t="s" s="7">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G71" t="s" s="38">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H71" t="s" s="35">
         <v>20</v>
@@ -7160,13 +7165,13 @@
         <v>3</v>
       </c>
       <c r="N71" t="s" s="35">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O71" t="s" s="35">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P71" t="s" s="35">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q71" s="12"/>
       <c r="R71" s="36">
@@ -7180,7 +7185,7 @@
     <row r="72" ht="16" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" t="s" s="31">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C72" s="45"/>
       <c r="D72" t="s" s="23">
@@ -7190,10 +7195,10 @@
         <v>16</v>
       </c>
       <c r="F72" t="s" s="7">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G72" t="s" s="38">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H72" t="s" s="35">
         <v>20</v>
@@ -7202,7 +7207,7 @@
         <v>21</v>
       </c>
       <c r="J72" t="s" s="35">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K72" t="s" s="35">
         <v>64</v>
@@ -7214,13 +7219,13 @@
         <v>46</v>
       </c>
       <c r="N72" t="s" s="35">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O72" t="s" s="35">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P72" t="s" s="35">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q72" s="12"/>
       <c r="R72" s="36">
@@ -7234,7 +7239,7 @@
     <row r="73" ht="16" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" t="s" s="40">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C73" t="s" s="35">
         <v>16</v>
@@ -7246,10 +7251,10 @@
         <v>16</v>
       </c>
       <c r="F73" t="s" s="7">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G73" t="s" s="38">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H73" t="s" s="35">
         <v>54</v>
@@ -7268,10 +7273,10 @@
         <v>3</v>
       </c>
       <c r="N73" t="s" s="35">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O73" t="s" s="35">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
@@ -7286,7 +7291,7 @@
     <row r="74" ht="16" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" t="s" s="27">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C74" t="s" s="41">
         <v>16</v>
@@ -7298,10 +7303,10 @@
         <v>16</v>
       </c>
       <c r="F74" t="s" s="7">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G74" t="s" s="38">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H74" t="s" s="35">
         <v>20</v>
@@ -7310,7 +7315,7 @@
         <v>100</v>
       </c>
       <c r="J74" t="s" s="35">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K74" t="s" s="35">
         <v>40</v>
@@ -7320,10 +7325,10 @@
         <v>3</v>
       </c>
       <c r="N74" t="s" s="35">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O74" t="s" s="35">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
@@ -7368,7 +7373,7 @@
     <row r="76" ht="16" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" t="s" s="27">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" t="s" s="23">
@@ -7424,7 +7429,7 @@
     <row r="78" ht="16" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" t="s" s="42">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C78" s="45"/>
       <c r="D78" t="s" s="23">
@@ -7435,10 +7440,10 @@
         <v>7</v>
       </c>
       <c r="G78" t="s" s="35">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H78" t="s" s="35">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -7456,7 +7461,7 @@
     <row r="79" ht="16" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" t="s" s="27">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" t="s" s="31">
@@ -7464,7 +7469,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="35">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G79" s="39">
         <v>100</v>
@@ -7500,7 +7505,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="35">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -7530,7 +7535,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="35">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G81" s="39">
         <v>100</v>
@@ -7558,7 +7563,7 @@
       <c r="D82" s="14"/>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="35">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="39">
@@ -7580,7 +7585,7 @@
     <row r="83" ht="16" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" t="s" s="16">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C83" t="s" s="17">
         <v>7</v>
@@ -7590,7 +7595,7 @@
       </c>
       <c r="E83" s="47"/>
       <c r="F83" t="s" s="35">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G83" s="39">
         <v>100</v>
@@ -7616,7 +7621,7 @@
         <v>16</v>
       </c>
       <c r="B84" t="s" s="42">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C84" t="s" s="31">
         <v>16</v>
@@ -7626,7 +7631,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="35">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G84" s="39">
         <v>100</v>
@@ -7652,17 +7657,17 @@
         <v>16</v>
       </c>
       <c r="B85" t="s" s="27">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C85" t="s" s="38">
         <v>16</v>
       </c>
       <c r="D85" t="s" s="35">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="35">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G85" s="39">
         <v>100</v>
@@ -7696,7 +7701,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="35">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G86" s="39">
         <v>100</v>
@@ -7718,7 +7723,7 @@
     <row r="87" ht="16" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" t="s" s="27">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" t="s" s="35">
@@ -7726,7 +7731,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="35">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G87" s="39">
         <v>100</v>
@@ -7756,11 +7761,11 @@
         <v>16</v>
       </c>
       <c r="D88" t="s" s="35">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="35">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G88" s="39">
         <v>100</v>
@@ -7784,17 +7789,17 @@
     <row r="89" ht="16" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" t="s" s="31">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C89" t="s" s="35">
         <v>16</v>
       </c>
       <c r="D89" t="s" s="40">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="35">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -7814,7 +7819,7 @@
     <row r="90" ht="16" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" t="s" s="35">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C90" s="45"/>
       <c r="D90" t="s" s="23">
@@ -7822,7 +7827,7 @@
       </c>
       <c r="E90" s="47"/>
       <c r="F90" t="s" s="35">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G90" s="39">
         <v>100</v>
@@ -7846,7 +7851,7 @@
     <row r="91" ht="16" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" t="s" s="35">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C91" s="45"/>
       <c r="D91" t="s" s="23">
@@ -7854,7 +7859,7 @@
       </c>
       <c r="E91" s="47"/>
       <c r="F91" t="s" s="35">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G91" s="39">
         <v>100</v>
@@ -7878,7 +7883,7 @@
     <row r="92" ht="16" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" t="s" s="35">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C92" s="45"/>
       <c r="D92" t="s" s="23">
@@ -7886,7 +7891,7 @@
       </c>
       <c r="E92" s="47"/>
       <c r="F92" t="s" s="35">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G92" s="39">
         <v>100</v>
@@ -7908,7 +7913,7 @@
     <row r="93" ht="16" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" t="s" s="35">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" t="s" s="42">
@@ -7916,7 +7921,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="35">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G93" s="39">
         <v>100</v>
@@ -7940,7 +7945,7 @@
     <row r="94" ht="16" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" t="s" s="40">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C94" s="45"/>
       <c r="D94" t="s" s="23">
@@ -7948,7 +7953,7 @@
       </c>
       <c r="E94" s="47"/>
       <c r="F94" t="s" s="35">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -7968,7 +7973,7 @@
     <row r="95" ht="16" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" t="s" s="7">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" t="s" s="23">
@@ -7976,7 +7981,7 @@
       </c>
       <c r="E95" s="47"/>
       <c r="F95" t="s" s="35">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G95" s="39">
         <v>100</v>
@@ -8002,7 +8007,7 @@
         <v>16</v>
       </c>
       <c r="B96" t="s" s="7">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C96" t="s" s="41">
         <v>16</v>
@@ -8052,7 +8057,7 @@
     <row r="98" ht="16" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" t="s" s="16">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C98" t="s" s="17">
         <v>7</v>
@@ -8086,7 +8091,7 @@
         <v>16</v>
       </c>
       <c r="D99" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -8108,7 +8113,7 @@
     <row r="100" ht="16" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" t="s" s="27">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C100" t="s" s="38">
         <v>16</v>
@@ -8136,7 +8141,7 @@
     <row r="101" ht="16" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" t="s" s="27">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s" s="38">
         <v>16</v>
@@ -8192,7 +8197,7 @@
     <row r="103" ht="16" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" t="s" s="31">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C103" t="s" s="44">
         <v>16</v>
@@ -8220,7 +8225,7 @@
     <row r="104" ht="16" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" t="s" s="35">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C104" t="s" s="35">
         <v>16</v>
@@ -8248,7 +8253,7 @@
     <row r="105" ht="16" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" t="s" s="40">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C105" s="45"/>
       <c r="D105" t="s" s="23">
@@ -8274,7 +8279,7 @@
     <row r="106" ht="16" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" t="s" s="27">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C106" t="s" s="38">
         <v>16</v>
@@ -8302,13 +8307,13 @@
     <row r="107" ht="16" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" t="s" s="27">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C107" t="s" s="38">
         <v>16</v>
       </c>
       <c r="D107" t="s" s="35">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -8358,7 +8363,7 @@
     <row r="109" ht="16" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" t="s" s="27">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C109" t="s" s="38">
         <v>16</v>
@@ -8386,7 +8391,7 @@
     <row r="110" ht="16" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" t="s" s="31">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C110" t="s" s="44">
         <v>16</v>
@@ -8414,7 +8419,7 @@
     <row r="111" ht="16" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" t="s" s="40">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C111" t="s" s="44">
         <v>16</v>
@@ -8498,7 +8503,7 @@
     <row r="114" ht="16" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" t="s" s="27">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C114" t="s" s="38">
         <v>16</v>
@@ -8526,7 +8531,7 @@
     <row r="115" ht="16" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" t="s" s="27">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C115" t="s" s="38">
         <v>16</v>
@@ -8554,7 +8559,7 @@
     <row r="116" ht="16" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" t="s" s="7">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C116" t="s" s="41">
         <v>16</v>
@@ -8582,7 +8587,7 @@
     <row r="117" ht="16" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" t="s" s="27">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C117" t="s" s="38">
         <v>16</v>
@@ -8638,7 +8643,7 @@
     <row r="119" ht="16" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" t="s" s="27">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C119" t="s" s="38">
         <v>16</v>
@@ -8688,7 +8693,7 @@
     <row r="121" ht="16" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" t="s" s="16">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C121" t="s" s="17">
         <v>7</v>
@@ -8718,13 +8723,13 @@
         <v>16</v>
       </c>
       <c r="B122" t="s" s="42">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C122" t="s" s="43">
         <v>16</v>
       </c>
       <c r="D122" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E122" s="47"/>
       <c r="F122" s="2"/>
@@ -8746,11 +8751,11 @@
     <row r="123" ht="16" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" t="s" s="27">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C123" s="11"/>
       <c r="D123" t="s" s="42">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -8774,7 +8779,7 @@
         <v>16</v>
       </c>
       <c r="B124" t="s" s="7">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C124" t="s" s="41">
         <v>16</v>
@@ -8802,7 +8807,7 @@
     <row r="125" ht="16" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" t="s" s="42">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C125" t="s" s="44">
         <v>16</v>
@@ -8830,7 +8835,7 @@
     <row r="126" ht="16" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" t="s" s="27">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C126" t="s" s="38">
         <v>16</v>
@@ -8858,7 +8863,7 @@
     <row r="127" ht="16" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" t="s" s="31">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C127" s="45"/>
       <c r="D127" t="s" s="23">
@@ -8884,7 +8889,7 @@
     <row r="128" ht="16" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" t="s" s="40">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C128" s="45"/>
       <c r="D128" t="s" s="23">
@@ -8910,7 +8915,7 @@
     <row r="129" ht="16" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" t="s" s="27">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" t="s" s="42">
@@ -8938,13 +8943,13 @@
         <v>16</v>
       </c>
       <c r="B130" t="s" s="42">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C130" t="s" s="44">
         <v>16</v>
       </c>
       <c r="D130" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E130" s="47"/>
       <c r="F130" s="2"/>
@@ -8994,7 +8999,7 @@
     <row r="132" ht="16" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" t="s" s="27">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" t="s" s="40">
@@ -9020,7 +9025,7 @@
     <row r="133" ht="16" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" t="s" s="7">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" t="s" s="23">
@@ -9046,7 +9051,7 @@
     <row r="134" ht="16" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" t="s" s="27">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" t="s" s="42">
@@ -9072,7 +9077,7 @@
     <row r="135" ht="16" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" t="s" s="31">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C135" s="45"/>
       <c r="D135" t="s" s="23">
@@ -9098,7 +9103,7 @@
     <row r="136" ht="16" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" t="s" s="35">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C136" s="45"/>
       <c r="D136" t="s" s="23">
@@ -9124,7 +9129,7 @@
     <row r="137" ht="16" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" t="s" s="40">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C137" s="45"/>
       <c r="D137" t="s" s="23">
@@ -9150,7 +9155,7 @@
     <row r="138" ht="16" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" t="s" s="27">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" t="s" s="31">
@@ -9198,7 +9203,7 @@
     <row r="140" ht="16" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" t="s" s="16">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C140" t="s" s="17">
         <v>7</v>
@@ -9226,7 +9231,7 @@
     <row r="141" ht="16" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" t="s" s="27">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C141" s="48"/>
       <c r="D141" t="s" s="31">
@@ -9252,7 +9257,7 @@
     <row r="142" ht="16" customHeight="1">
       <c r="A142" s="4"/>
       <c r="B142" t="s" s="27">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C142" t="s" s="38">
         <v>16</v>
@@ -9280,7 +9285,7 @@
     <row r="143" ht="16" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" t="s" s="42">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C143" t="s" s="44">
         <v>16</v>
@@ -9308,7 +9313,7 @@
     <row r="144" ht="16" customHeight="1">
       <c r="A144" s="4"/>
       <c r="B144" t="s" s="27">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C144" t="s" s="38">
         <v>16</v>
@@ -9336,7 +9341,7 @@
     <row r="145" ht="16" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" t="s" s="27">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" t="s" s="40">
@@ -9362,7 +9367,7 @@
     <row r="146" ht="16" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" t="s" s="42">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C146" s="45"/>
       <c r="D146" t="s" s="23">
@@ -9474,7 +9479,7 @@
       </c>
       <c r="C150" s="11"/>
       <c r="D150" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -9496,7 +9501,7 @@
     <row r="151" ht="16" customHeight="1">
       <c r="A151" s="4"/>
       <c r="B151" t="s" s="27">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C151" s="11"/>
       <c r="D151" t="s" s="35">
@@ -9522,7 +9527,7 @@
     <row r="152" ht="16" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" t="s" s="42">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C152" s="12"/>
       <c r="D152" t="s" s="35">
@@ -9548,7 +9553,7 @@
     <row r="153" ht="16" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" t="s" s="27">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" t="s" s="35">
@@ -9602,7 +9607,7 @@
     <row r="155" ht="16" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" t="s" s="27">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C155" s="11"/>
       <c r="D155" t="s" s="35">
@@ -9654,7 +9659,7 @@
     <row r="157" ht="16" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" t="s" s="27">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s" s="38">
         <v>16</v>
@@ -9704,7 +9709,7 @@
     <row r="159" ht="16" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" t="s" s="16">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C159" t="s" s="17">
         <v>7</v>
@@ -9762,7 +9767,7 @@
     <row r="161" ht="16" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" t="s" s="27">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C161" t="s" s="38">
         <v>16</v>
@@ -9792,7 +9797,7 @@
         <v>16</v>
       </c>
       <c r="B162" t="s" s="7">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C162" t="s" s="41">
         <v>16</v>
@@ -9822,13 +9827,13 @@
         <v>16</v>
       </c>
       <c r="B163" t="s" s="31">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C163" t="s" s="35">
         <v>16</v>
       </c>
       <c r="D163" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -9852,7 +9857,7 @@
         <v>16</v>
       </c>
       <c r="B164" t="s" s="40">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C164" s="12"/>
       <c r="D164" t="s" s="40">
@@ -9878,7 +9883,7 @@
     <row r="165" ht="16" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" t="s" s="7">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C165" t="s" s="41">
         <v>16</v>
@@ -9934,7 +9939,7 @@
     <row r="167" ht="16" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" t="s" s="27">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C167" t="s" s="38">
         <v>16</v>
@@ -9964,7 +9969,7 @@
         <v>16</v>
       </c>
       <c r="B168" t="s" s="7">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C168" t="s" s="41">
         <v>16</v>
@@ -9994,7 +9999,7 @@
         <v>16</v>
       </c>
       <c r="B169" t="s" s="27">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C169" t="s" s="38">
         <v>16</v>
@@ -10024,7 +10029,7 @@
         <v>16</v>
       </c>
       <c r="B170" t="s" s="27">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C170" t="s" s="38">
         <v>16</v>
@@ -10082,7 +10087,7 @@
     <row r="172" ht="16" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" t="s" s="42">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C172" s="12"/>
       <c r="D172" t="s" s="31">
@@ -10108,11 +10113,11 @@
     <row r="173" ht="16" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" t="s" s="27">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" t="s" s="40">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -10134,7 +10139,7 @@
     <row r="174" ht="16" customHeight="1">
       <c r="A174" s="4"/>
       <c r="B174" t="s" s="27">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C174" t="s" s="41">
         <v>16</v>
@@ -10160,9 +10165,11 @@
       <c r="T174" s="2"/>
     </row>
     <row r="175" ht="16" customHeight="1">
-      <c r="A175" s="2"/>
+      <c r="A175" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B175" t="s" s="42">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C175" s="45"/>
       <c r="D175" t="s" s="23">
@@ -10274,7 +10281,7 @@
         <v>16</v>
       </c>
       <c r="B179" t="s" s="7">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C179" t="s" s="41">
         <v>16</v>
@@ -10302,7 +10309,7 @@
     <row r="180" ht="16" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" t="s" s="31">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C180" s="12"/>
       <c r="D180" t="s" s="31">
@@ -10350,7 +10357,7 @@
     <row r="182" ht="16" customHeight="1">
       <c r="A182" s="4"/>
       <c r="B182" t="s" s="16">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C182" t="s" s="17">
         <v>7</v>
@@ -10380,13 +10387,13 @@
         <v>16</v>
       </c>
       <c r="B183" t="s" s="42">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C183" t="s" s="31">
         <v>16</v>
       </c>
       <c r="D183" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -10408,13 +10415,13 @@
     <row r="184" ht="16" customHeight="1">
       <c r="A184" s="4"/>
       <c r="B184" t="s" s="27">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C184" t="s" s="38">
         <v>16</v>
       </c>
       <c r="D184" t="s" s="40">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -10466,7 +10473,7 @@
     <row r="186" ht="16" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" t="s" s="42">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C186" t="s" s="35">
         <v>16</v>
@@ -10494,7 +10501,7 @@
     <row r="187" ht="16" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" t="s" s="27">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C187" t="s" s="38">
         <v>16</v>
@@ -10522,7 +10529,7 @@
     <row r="188" ht="16" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" t="s" s="42">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C188" t="s" s="44">
         <v>16</v>
@@ -10552,7 +10559,7 @@
         <v>16</v>
       </c>
       <c r="B189" t="s" s="7">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C189" t="s" s="41">
         <v>16</v>
@@ -10580,7 +10587,7 @@
     <row r="190" ht="16" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" t="s" s="27">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" t="s" s="42">
@@ -10606,7 +10613,7 @@
     <row r="191" ht="16" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" t="s" s="7">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C191" t="s" s="41">
         <v>16</v>
@@ -10666,7 +10673,7 @@
         <v>16</v>
       </c>
       <c r="B193" t="s" s="7">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C193" t="s" s="38">
         <v>16</v>
@@ -10750,7 +10757,7 @@
     <row r="196" ht="16" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" t="s" s="27">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C196" t="s" s="38">
         <v>16</v>
@@ -10778,7 +10785,7 @@
     <row r="197" ht="16" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" t="s" s="27">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C197" t="s" s="38">
         <v>16</v>
@@ -10834,13 +10841,13 @@
     <row r="199" ht="16" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" t="s" s="42">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C199" t="s" s="44">
         <v>16</v>
       </c>
       <c r="D199" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E199" s="47"/>
       <c r="F199" s="2"/>
@@ -10868,7 +10875,7 @@
       </c>
       <c r="C200" s="11"/>
       <c r="D200" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -10952,7 +10959,7 @@
         <v>16</v>
       </c>
       <c r="B203" t="s" s="7">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C203" t="s" s="41">
         <v>16</v>
@@ -11002,7 +11009,7 @@
     <row r="205" ht="16" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" t="s" s="16">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C205" t="s" s="17">
         <v>7</v>
@@ -11032,7 +11039,7 @@
         <v>16</v>
       </c>
       <c r="B206" t="s" s="31">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C206" t="s" s="31">
         <v>16</v>
@@ -11060,7 +11067,7 @@
     <row r="207" ht="16" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" t="s" s="35">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C207" t="s" s="44">
         <v>16</v>
@@ -11088,7 +11095,7 @@
     <row r="208" ht="16" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" t="s" s="40">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C208" t="s" s="35">
         <v>16</v>
@@ -11118,7 +11125,7 @@
         <v>16</v>
       </c>
       <c r="B209" t="s" s="7">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C209" t="s" s="41">
         <v>16</v>
@@ -11204,7 +11211,7 @@
         <v>16</v>
       </c>
       <c r="B212" t="s" s="27">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C212" t="s" s="38">
         <v>16</v>
@@ -11232,7 +11239,7 @@
     <row r="213" ht="16" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" t="s" s="31">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C213" t="s" s="44">
         <v>16</v>
@@ -11260,7 +11267,7 @@
     <row r="214" ht="16" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" t="s" s="40">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C214" s="45"/>
       <c r="D214" t="s" s="23">
@@ -11396,7 +11403,7 @@
     <row r="219" ht="16" customHeight="1">
       <c r="A219" s="4"/>
       <c r="B219" t="s" s="7">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C219" t="s" s="41">
         <v>16</v>
@@ -11424,7 +11431,7 @@
     <row r="220" ht="16" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" t="s" s="42">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C220" s="45"/>
       <c r="D220" t="s" s="23">
@@ -11478,11 +11485,11 @@
     <row r="222" ht="16" customHeight="1">
       <c r="A222" s="4"/>
       <c r="B222" t="s" s="27">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C222" s="11"/>
       <c r="D222" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
@@ -11526,7 +11533,7 @@
     <row r="224" ht="16" customHeight="1">
       <c r="A224" s="4"/>
       <c r="B224" t="s" s="16">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C224" t="s" s="17">
         <v>7</v>
@@ -11554,7 +11561,7 @@
     <row r="225" ht="16" customHeight="1">
       <c r="A225" s="4"/>
       <c r="B225" t="s" s="27">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C225" t="s" s="32">
         <v>16</v>
@@ -11582,7 +11589,7 @@
     <row r="226" ht="16" customHeight="1">
       <c r="A226" s="4"/>
       <c r="B226" t="s" s="27">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C226" s="11"/>
       <c r="D226" t="s" s="35">
@@ -11634,7 +11641,7 @@
     <row r="228" ht="16" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" t="s" s="31">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C228" s="12"/>
       <c r="D228" t="s" s="35">
@@ -11660,7 +11667,7 @@
     <row r="229" ht="16" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" t="s" s="35">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C229" s="12"/>
       <c r="D229" t="s" s="40">
@@ -11686,7 +11693,7 @@
     <row r="230" ht="16" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" t="s" s="35">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C230" s="45"/>
       <c r="D230" t="s" s="23">
@@ -11714,13 +11721,13 @@
         <v>16</v>
       </c>
       <c r="B231" t="s" s="40">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C231" t="s" s="35">
         <v>16</v>
       </c>
       <c r="D231" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
@@ -11824,7 +11831,7 @@
     <row r="235" ht="16" customHeight="1">
       <c r="A235" s="4"/>
       <c r="B235" t="s" s="27">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C235" s="11"/>
       <c r="D235" t="s" s="40">
@@ -11850,7 +11857,7 @@
     <row r="236" ht="16" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" t="s" s="42">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C236" s="45"/>
       <c r="D236" t="s" s="23">
@@ -11876,7 +11883,7 @@
     <row r="237" ht="16" customHeight="1">
       <c r="A237" s="4"/>
       <c r="B237" t="s" s="27">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C237" s="11"/>
       <c r="D237" t="s" s="42">
@@ -11902,7 +11909,7 @@
     <row r="238" ht="16" customHeight="1">
       <c r="A238" s="4"/>
       <c r="B238" t="s" s="7">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" t="s" s="23">
@@ -11930,7 +11937,7 @@
         <v>16</v>
       </c>
       <c r="B239" t="s" s="31">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C239" t="s" s="44">
         <v>16</v>
@@ -11958,7 +11965,7 @@
     <row r="240" ht="16" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" t="s" s="40">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C240" s="12"/>
       <c r="D240" t="s" s="31">
@@ -11984,7 +11991,7 @@
     <row r="241" ht="16" customHeight="1">
       <c r="A241" s="4"/>
       <c r="B241" t="s" s="27">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C241" s="11"/>
       <c r="D241" t="s" s="35">
@@ -12032,7 +12039,7 @@
     <row r="243" ht="16" customHeight="1">
       <c r="A243" s="4"/>
       <c r="B243" t="s" s="16">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C243" t="s" s="17">
         <v>7</v>
@@ -12060,7 +12067,7 @@
     <row r="244" ht="16" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" t="s" s="42">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C244" t="s" s="43">
         <v>16</v>
@@ -12116,7 +12123,7 @@
     <row r="246" ht="16" customHeight="1">
       <c r="A246" s="4"/>
       <c r="B246" t="s" s="7">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C246" t="s" s="41">
         <v>16</v>
@@ -12146,7 +12153,7 @@
         <v>16</v>
       </c>
       <c r="B247" t="s" s="27">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C247" t="s" s="38">
         <v>16</v>
@@ -12202,7 +12209,7 @@
     <row r="249" ht="16" customHeight="1">
       <c r="A249" s="4"/>
       <c r="B249" t="s" s="7">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C249" t="s" s="41">
         <v>16</v>
@@ -12230,7 +12237,7 @@
     <row r="250" ht="16" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" t="s" s="31">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C250" s="45"/>
       <c r="D250" t="s" s="23">
@@ -12256,7 +12263,7 @@
     <row r="251" ht="16" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" t="s" s="35">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C251" s="12"/>
       <c r="D251" t="s" s="42">
@@ -12282,7 +12289,7 @@
     <row r="252" ht="16" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" t="s" s="40">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C252" t="s" s="44">
         <v>16</v>
@@ -12310,13 +12317,13 @@
     <row r="253" ht="16" customHeight="1">
       <c r="A253" s="4"/>
       <c r="B253" t="s" s="27">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C253" t="s" s="38">
         <v>16</v>
       </c>
       <c r="D253" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -12338,7 +12345,7 @@
     <row r="254" ht="16" customHeight="1">
       <c r="A254" s="4"/>
       <c r="B254" t="s" s="27">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C254" s="11"/>
       <c r="D254" t="s" s="40">
@@ -12364,11 +12371,11 @@
     <row r="255" ht="16" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" t="s" s="31">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C255" s="45"/>
       <c r="D255" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E255" s="47"/>
       <c r="F255" s="2"/>
@@ -12390,11 +12397,11 @@
     <row r="256" ht="16" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" t="s" s="40">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C256" s="12"/>
       <c r="D256" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -12448,7 +12455,7 @@
         <v>16</v>
       </c>
       <c r="B258" t="s" s="7">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C258" t="s" s="41">
         <v>16</v>
@@ -12476,7 +12483,7 @@
     <row r="259" ht="16" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" t="s" s="42">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C259" s="12"/>
       <c r="D259" t="s" s="31">
@@ -12502,7 +12509,7 @@
     <row r="260" ht="16" customHeight="1">
       <c r="A260" s="4"/>
       <c r="B260" t="s" s="27">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C260" t="s" s="38">
         <v>16</v>
@@ -12556,7 +12563,7 @@
     <row r="262" ht="16" customHeight="1">
       <c r="A262" s="4"/>
       <c r="B262" t="s" s="27">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C262" s="11"/>
       <c r="D262" t="s" s="40">
@@ -12580,9 +12587,11 @@
       <c r="T262" s="2"/>
     </row>
     <row r="263" ht="16" customHeight="1">
-      <c r="A263" s="2"/>
+      <c r="A263" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B263" t="s" s="42">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C263" t="s" s="44">
         <v>16</v>
@@ -12612,7 +12621,7 @@
         <v>16</v>
       </c>
       <c r="B264" t="s" s="27">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C264" t="s" s="38">
         <v>16</v>
@@ -12662,7 +12671,7 @@
     <row r="266" ht="16" customHeight="1">
       <c r="A266" s="4"/>
       <c r="B266" t="s" s="16">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C266" t="s" s="17">
         <v>7</v>
@@ -12690,13 +12699,13 @@
     <row r="267" ht="16" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" t="s" s="42">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C267" t="s" s="43">
         <v>16</v>
       </c>
       <c r="D267" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E267" s="47"/>
       <c r="F267" s="2"/>
@@ -12746,7 +12755,7 @@
     <row r="269" ht="16" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" t="s" s="42">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C269" t="s" s="44">
         <v>16</v>
@@ -12802,7 +12811,7 @@
     <row r="271" ht="16" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" t="s" s="42">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C271" s="45"/>
       <c r="D271" t="s" s="23">
@@ -12828,7 +12837,7 @@
     <row r="272" ht="16" customHeight="1">
       <c r="A272" s="4"/>
       <c r="B272" t="s" s="27">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C272" s="6"/>
       <c r="D272" t="s" s="23">
@@ -12854,7 +12863,7 @@
     <row r="273" ht="16" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" t="s" s="31">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C273" s="45"/>
       <c r="D273" t="s" s="23">
@@ -12880,7 +12889,7 @@
     <row r="274" ht="16" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" t="s" s="40">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C274" s="12"/>
       <c r="D274" t="s" s="31">
@@ -12906,7 +12915,7 @@
     <row r="275" ht="16" customHeight="1">
       <c r="A275" s="4"/>
       <c r="B275" t="s" s="27">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C275" t="s" s="38">
         <v>16</v>
@@ -12934,7 +12943,7 @@
     <row r="276" ht="16" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" t="s" s="31">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C276" t="s" s="35">
         <v>16</v>
@@ -12962,7 +12971,7 @@
     <row r="277" ht="16" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" t="s" s="40">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C277" s="45"/>
       <c r="D277" t="s" s="23">
@@ -13070,7 +13079,7 @@
     <row r="281" ht="16" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" t="s" s="42">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C281" s="45"/>
       <c r="D281" t="s" s="23">
@@ -13122,7 +13131,7 @@
     <row r="283" ht="16" customHeight="1">
       <c r="A283" s="4"/>
       <c r="B283" t="s" s="27">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C283" s="11"/>
       <c r="D283" t="s" s="40">
@@ -13176,7 +13185,7 @@
     <row r="285" ht="16" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" t="s" s="42">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C285" t="s" s="35">
         <v>16</v>
@@ -13204,7 +13213,7 @@
     <row r="286" ht="16" customHeight="1">
       <c r="A286" s="4"/>
       <c r="B286" t="s" s="27">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C286" t="s" s="38">
         <v>16</v>
@@ -13232,7 +13241,7 @@
     <row r="287" ht="16" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" t="s" s="31">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C287" s="12"/>
       <c r="D287" t="s" s="35">
@@ -13280,7 +13289,7 @@
     <row r="289" ht="16" customHeight="1">
       <c r="A289" s="4"/>
       <c r="B289" t="s" s="16">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C289" t="s" s="17">
         <v>7</v>
@@ -13308,13 +13317,13 @@
     <row r="290" ht="16" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" t="s" s="31">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C290" t="s" s="31">
         <v>16</v>
       </c>
       <c r="D290" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
@@ -13336,7 +13345,7 @@
     <row r="291" ht="16" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" t="s" s="35">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C291" t="s" s="35">
         <v>16</v>
@@ -13364,13 +13373,13 @@
     <row r="292" ht="16" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" t="s" s="35">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C292" t="s" s="35">
         <v>16</v>
       </c>
       <c r="D292" t="s" s="35">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
@@ -13394,7 +13403,7 @@
         <v>16</v>
       </c>
       <c r="B293" t="s" s="35">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C293" t="s" s="35">
         <v>16</v>
@@ -13422,7 +13431,7 @@
     <row r="294" ht="16" customHeight="1">
       <c r="A294" s="2"/>
       <c r="B294" t="s" s="40">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C294" s="12"/>
       <c r="D294" t="s" s="35">
@@ -13478,7 +13487,7 @@
     <row r="296" ht="16" customHeight="1">
       <c r="A296" s="4"/>
       <c r="B296" t="s" s="27">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C296" s="6"/>
       <c r="D296" t="s" s="23">
@@ -13536,7 +13545,7 @@
         <v>16</v>
       </c>
       <c r="B298" t="s" s="31">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C298" s="45"/>
       <c r="D298" t="s" s="23">
@@ -13562,7 +13571,7 @@
     <row r="299" ht="16" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" t="s" s="35">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C299" s="12"/>
       <c r="D299" t="s" s="31">
@@ -13588,7 +13597,7 @@
     <row r="300" ht="16" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" t="s" s="40">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C300" s="12"/>
       <c r="D300" t="s" s="35">
@@ -13614,7 +13623,7 @@
     <row r="301" ht="16" customHeight="1">
       <c r="A301" s="4"/>
       <c r="B301" t="s" s="27">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C301" s="11"/>
       <c r="D301" t="s" s="35">
@@ -13670,7 +13679,7 @@
     <row r="303" ht="16" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" t="s" s="31">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C303" t="s" s="44">
         <v>16</v>
@@ -13698,7 +13707,7 @@
     <row r="304" ht="16" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" t="s" s="35">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C304" s="45"/>
       <c r="D304" t="s" s="23">
@@ -13724,7 +13733,7 @@
     <row r="305" ht="16" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" t="s" s="35">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C305" s="12"/>
       <c r="D305" t="s" s="42">
@@ -13752,7 +13761,7 @@
         <v>16</v>
       </c>
       <c r="B306" t="s" s="35">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C306" s="45"/>
       <c r="D306" t="s" s="23">
@@ -13800,7 +13809,7 @@
     <row r="308" ht="16" customHeight="1">
       <c r="A308" s="4"/>
       <c r="B308" t="s" s="16">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C308" t="s" s="17">
         <v>7</v>
@@ -13830,7 +13839,7 @@
         <v>16</v>
       </c>
       <c r="B309" t="s" s="31">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C309" t="s" s="31">
         <v>16</v>
@@ -13858,7 +13867,7 @@
     <row r="310" ht="16" customHeight="1">
       <c r="A310" s="2"/>
       <c r="B310" t="s" s="40">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C310" t="s" s="44">
         <v>16</v>
@@ -13916,7 +13925,7 @@
         <v>16</v>
       </c>
       <c r="B312" t="s" s="42">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C312" t="s" s="35">
         <v>16</v>
@@ -13944,7 +13953,7 @@
     <row r="313" ht="16" customHeight="1">
       <c r="A313" s="4"/>
       <c r="B313" t="s" s="27">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C313" t="s" s="38">
         <v>16</v>
@@ -13972,7 +13981,7 @@
     <row r="314" ht="16" customHeight="1">
       <c r="A314" s="4"/>
       <c r="B314" t="s" s="27">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C314" t="s" s="38">
         <v>16</v>
@@ -14000,7 +14009,7 @@
     <row r="315" ht="16" customHeight="1">
       <c r="A315" s="4"/>
       <c r="B315" t="s" s="27">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C315" t="s" s="38">
         <v>16</v>
@@ -14056,7 +14065,7 @@
     <row r="317" ht="16" customHeight="1">
       <c r="A317" s="4"/>
       <c r="B317" t="s" s="27">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C317" s="11"/>
       <c r="D317" t="s" s="35">
@@ -14142,7 +14151,7 @@
     <row r="320" ht="16" customHeight="1">
       <c r="A320" s="2"/>
       <c r="B320" t="s" s="42">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C320" s="12"/>
       <c r="D320" t="s" s="35">
@@ -14168,7 +14177,7 @@
     <row r="321" ht="16" customHeight="1">
       <c r="A321" s="4"/>
       <c r="B321" t="s" s="27">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C321" t="s" s="38">
         <v>16</v>
@@ -14248,7 +14257,7 @@
     <row r="324" ht="16" customHeight="1">
       <c r="A324" s="2"/>
       <c r="B324" t="s" s="42">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C324" s="45"/>
       <c r="D324" t="s" s="23">
@@ -14300,7 +14309,7 @@
     <row r="326" ht="16" customHeight="1">
       <c r="A326" s="4"/>
       <c r="B326" t="s" s="27">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C326" t="s" s="38">
         <v>16</v>
@@ -14328,7 +14337,7 @@
     <row r="327" ht="16" customHeight="1">
       <c r="A327" s="4"/>
       <c r="B327" t="s" s="27">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C327" s="11"/>
       <c r="D327" t="s" s="40">
@@ -14354,7 +14363,7 @@
     <row r="328" ht="16" customHeight="1">
       <c r="A328" s="2"/>
       <c r="B328" t="s" s="31">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C328" s="45"/>
       <c r="D328" t="s" s="23">
@@ -14380,11 +14389,11 @@
     <row r="329" ht="16" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" t="s" s="35">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C329" s="45"/>
       <c r="D329" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E329" s="47"/>
       <c r="F329" s="2"/>
@@ -14428,7 +14437,7 @@
     <row r="331" ht="16" customHeight="1">
       <c r="A331" s="4"/>
       <c r="B331" t="s" s="16">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C331" t="s" s="17">
         <v>7</v>
@@ -14458,7 +14467,7 @@
         <v>16</v>
       </c>
       <c r="B332" t="s" s="31">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C332" t="s" s="43">
         <v>16</v>
@@ -14486,13 +14495,13 @@
     <row r="333" ht="16" customHeight="1">
       <c r="A333" s="2"/>
       <c r="B333" t="s" s="40">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C333" t="s" s="35">
         <v>16</v>
       </c>
       <c r="D333" t="s" s="42">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
@@ -14514,7 +14523,7 @@
     <row r="334" ht="16" customHeight="1">
       <c r="A334" s="4"/>
       <c r="B334" t="s" s="7">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C334" t="s" s="41">
         <v>16</v>
@@ -14542,7 +14551,7 @@
     <row r="335" ht="16" customHeight="1">
       <c r="A335" s="2"/>
       <c r="B335" t="s" s="31">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C335" s="12"/>
       <c r="D335" t="s" s="31">
@@ -14568,7 +14577,7 @@
     <row r="336" ht="16" customHeight="1">
       <c r="A336" s="2"/>
       <c r="B336" t="s" s="40">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C336" s="12"/>
       <c r="D336" t="s" s="35">
@@ -14622,7 +14631,7 @@
     <row r="338" ht="16" customHeight="1">
       <c r="A338" s="4"/>
       <c r="B338" t="s" s="7">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C338" t="s" s="41">
         <v>16</v>
@@ -14650,7 +14659,7 @@
     <row r="339" ht="16" customHeight="1">
       <c r="A339" s="4"/>
       <c r="B339" t="s" s="7">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C339" t="s" s="41">
         <v>16</v>
@@ -14678,7 +14687,7 @@
     <row r="340" ht="16" customHeight="1">
       <c r="A340" s="2"/>
       <c r="B340" t="s" s="42">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C340" s="45"/>
       <c r="D340" t="s" s="23">
@@ -14704,7 +14713,7 @@
     <row r="341" ht="16" customHeight="1">
       <c r="A341" s="4"/>
       <c r="B341" t="s" s="27">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C341" t="s" s="38">
         <v>16</v>
@@ -14732,7 +14741,7 @@
     <row r="342" ht="16" customHeight="1">
       <c r="A342" s="2"/>
       <c r="B342" t="s" s="42">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C342" s="45"/>
       <c r="D342" t="s" s="23">
@@ -14760,7 +14769,7 @@
         <v>16</v>
       </c>
       <c r="B343" t="s" s="7">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C343" t="s" s="41">
         <v>16</v>
@@ -14788,7 +14797,7 @@
     <row r="344" ht="16" customHeight="1">
       <c r="A344" s="4"/>
       <c r="B344" t="s" s="27">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C344" t="s" s="38">
         <v>16</v>
@@ -14816,7 +14825,7 @@
     <row r="345" ht="16" customHeight="1">
       <c r="A345" s="2"/>
       <c r="B345" t="s" s="31">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C345" s="12"/>
       <c r="D345" t="s" s="40">
@@ -14842,7 +14851,7 @@
     <row r="346" ht="16" customHeight="1">
       <c r="A346" s="2"/>
       <c r="B346" t="s" s="40">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C346" s="45"/>
       <c r="D346" t="s" s="23">
@@ -14868,7 +14877,7 @@
     <row r="347" ht="16" customHeight="1">
       <c r="A347" s="4"/>
       <c r="B347" t="s" s="27">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C347" s="6"/>
       <c r="D347" t="s" s="23">
@@ -14894,11 +14903,11 @@
     <row r="348" ht="16" customHeight="1">
       <c r="A348" s="2"/>
       <c r="B348" t="s" s="31">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C348" s="45"/>
       <c r="D348" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E348" s="47"/>
       <c r="F348" s="2"/>
@@ -14942,7 +14951,7 @@
     <row r="350" ht="16" customHeight="1">
       <c r="A350" s="4"/>
       <c r="B350" t="s" s="16">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C350" t="s" s="17">
         <v>7</v>
@@ -14970,13 +14979,13 @@
     <row r="351" ht="16" customHeight="1">
       <c r="A351" s="2"/>
       <c r="B351" t="s" s="31">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C351" t="s" s="43">
         <v>16</v>
       </c>
       <c r="D351" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E351" s="47"/>
       <c r="F351" s="2"/>
@@ -14998,7 +15007,7 @@
     <row r="352" ht="16" customHeight="1">
       <c r="A352" s="2"/>
       <c r="B352" t="s" s="40">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C352" t="s" s="35">
         <v>16</v>
@@ -15056,7 +15065,7 @@
     <row r="354" ht="16" customHeight="1">
       <c r="A354" s="2"/>
       <c r="B354" t="s" s="42">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C354" s="12"/>
       <c r="D354" t="s" s="31">
@@ -15110,7 +15119,7 @@
     <row r="356" ht="16" customHeight="1">
       <c r="A356" s="4"/>
       <c r="B356" t="s" s="27">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C356" t="s" s="38">
         <v>16</v>
@@ -15138,7 +15147,7 @@
     <row r="357" ht="16" customHeight="1">
       <c r="A357" s="2"/>
       <c r="B357" t="s" s="31">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C357" s="45"/>
       <c r="D357" t="s" s="23">
@@ -15164,11 +15173,11 @@
     <row r="358" ht="16" customHeight="1">
       <c r="A358" s="2"/>
       <c r="B358" t="s" s="35">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C358" s="12"/>
       <c r="D358" t="s" s="42">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
@@ -15190,7 +15199,7 @@
     <row r="359" ht="16" customHeight="1">
       <c r="A359" s="2"/>
       <c r="B359" t="s" s="35">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C359" s="45"/>
       <c r="D359" t="s" s="23">
@@ -15216,7 +15225,7 @@
     <row r="360" ht="16" customHeight="1">
       <c r="A360" s="2"/>
       <c r="B360" t="s" s="35">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C360" s="45"/>
       <c r="D360" t="s" s="23">
@@ -15242,7 +15251,7 @@
     <row r="361" ht="16" customHeight="1">
       <c r="A361" s="2"/>
       <c r="B361" t="s" s="35">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C361" s="45"/>
       <c r="D361" t="s" s="23">
@@ -15268,7 +15277,7 @@
     <row r="362" ht="16" customHeight="1">
       <c r="A362" s="2"/>
       <c r="B362" t="s" s="40">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C362" s="45"/>
       <c r="D362" t="s" s="23">
@@ -15294,7 +15303,7 @@
     <row r="363" ht="16" customHeight="1">
       <c r="A363" s="4"/>
       <c r="B363" t="s" s="27">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C363" s="11"/>
       <c r="D363" t="s" s="31">
@@ -15346,7 +15355,7 @@
     <row r="365" ht="16" customHeight="1">
       <c r="A365" s="2"/>
       <c r="B365" t="s" s="42">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C365" s="45"/>
       <c r="D365" t="s" s="23">
@@ -15372,7 +15381,7 @@
     <row r="366" ht="16" customHeight="1">
       <c r="A366" s="4"/>
       <c r="B366" t="s" s="27">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C366" s="11"/>
       <c r="D366" t="s" s="42">
@@ -15398,13 +15407,13 @@
     <row r="367" ht="16" customHeight="1">
       <c r="A367" s="2"/>
       <c r="B367" t="s" s="42">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C367" t="s" s="44">
         <v>16</v>
       </c>
       <c r="D367" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E367" s="47"/>
       <c r="F367" s="2"/>
@@ -15480,7 +15489,7 @@
     <row r="370" ht="16" customHeight="1">
       <c r="A370" s="4"/>
       <c r="B370" t="s" s="27">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C370" s="11"/>
       <c r="D370" t="s" s="42">
@@ -15506,7 +15515,7 @@
     <row r="371" ht="16" customHeight="1">
       <c r="A371" s="2"/>
       <c r="B371" t="s" s="31">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C371" s="45"/>
       <c r="D371" t="s" s="23">
@@ -15554,7 +15563,7 @@
     <row r="373" ht="16" customHeight="1">
       <c r="A373" s="4"/>
       <c r="B373" t="s" s="16">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C373" t="s" s="17">
         <v>7</v>
@@ -15582,13 +15591,13 @@
     <row r="374" ht="16" customHeight="1">
       <c r="A374" s="2"/>
       <c r="B374" t="s" s="42">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C374" t="s" s="31">
         <v>16</v>
       </c>
       <c r="D374" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
@@ -15610,7 +15619,7 @@
     <row r="375" ht="16" customHeight="1">
       <c r="A375" s="4"/>
       <c r="B375" t="s" s="27">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C375" t="s" s="38">
         <v>16</v>
@@ -15638,7 +15647,7 @@
     <row r="376" ht="16" customHeight="1">
       <c r="A376" s="2"/>
       <c r="B376" t="s" s="31">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C376" t="s" s="44">
         <v>16</v>
@@ -15666,7 +15675,7 @@
     <row r="377" ht="16" customHeight="1">
       <c r="A377" s="2"/>
       <c r="B377" t="s" s="35">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C377" t="s" s="35">
         <v>16</v>
@@ -15694,7 +15703,7 @@
     <row r="378" ht="16" customHeight="1">
       <c r="A378" s="2"/>
       <c r="B378" t="s" s="35">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C378" s="12"/>
       <c r="D378" t="s" s="35">
@@ -15720,7 +15729,7 @@
     <row r="379" ht="16" customHeight="1">
       <c r="A379" s="2"/>
       <c r="B379" t="s" s="35">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C379" s="12"/>
       <c r="D379" t="s" s="35">
@@ -15746,7 +15755,7 @@
     <row r="380" ht="16" customHeight="1">
       <c r="A380" s="2"/>
       <c r="B380" t="s" s="40">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C380" t="s" s="35">
         <v>16</v>
@@ -15774,7 +15783,7 @@
     <row r="381" ht="16" customHeight="1">
       <c r="A381" s="4"/>
       <c r="B381" t="s" s="27">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C381" t="s" s="38">
         <v>16</v>
@@ -15886,7 +15895,7 @@
     <row r="385" ht="16" customHeight="1">
       <c r="A385" s="4"/>
       <c r="B385" t="s" s="27">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C385" s="11"/>
       <c r="D385" t="s" s="40">
@@ -15940,7 +15949,7 @@
     <row r="387" ht="16" customHeight="1">
       <c r="A387" s="4"/>
       <c r="B387" t="s" s="27">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" t="s" s="23">
@@ -15994,7 +16003,7 @@
     <row r="389" ht="16" customHeight="1">
       <c r="A389" s="2"/>
       <c r="B389" t="s" s="31">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C389" s="45"/>
       <c r="D389" t="s" s="23">
@@ -16020,7 +16029,7 @@
     <row r="390" ht="16" customHeight="1">
       <c r="A390" s="2"/>
       <c r="B390" t="s" s="35">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C390" s="45"/>
       <c r="D390" t="s" s="23">
@@ -16068,7 +16077,7 @@
     <row r="392" ht="16" customHeight="1">
       <c r="A392" s="4"/>
       <c r="B392" t="s" s="16">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C392" t="s" s="17">
         <v>7</v>
@@ -16098,13 +16107,13 @@
         <v>16</v>
       </c>
       <c r="B393" t="s" s="31">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C393" t="s" s="43">
         <v>16</v>
       </c>
       <c r="D393" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E393" s="47"/>
       <c r="F393" s="2"/>
@@ -16126,7 +16135,7 @@
     <row r="394" ht="16" customHeight="1">
       <c r="A394" s="2"/>
       <c r="B394" t="s" s="35">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C394" s="45"/>
       <c r="D394" t="s" s="23">
@@ -16152,13 +16161,13 @@
     <row r="395" ht="16" customHeight="1">
       <c r="A395" s="2"/>
       <c r="B395" t="s" s="35">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C395" t="s" s="44">
         <v>16</v>
       </c>
       <c r="D395" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E395" s="47"/>
       <c r="F395" s="2"/>
@@ -16180,11 +16189,11 @@
     <row r="396" ht="16" customHeight="1">
       <c r="A396" s="2"/>
       <c r="B396" t="s" s="40">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C396" s="12"/>
       <c r="D396" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
@@ -16208,7 +16217,7 @@
         <v>16</v>
       </c>
       <c r="B397" t="s" s="27">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C397" t="s" s="38">
         <v>16</v>
@@ -16266,7 +16275,7 @@
     <row r="399" ht="16" customHeight="1">
       <c r="A399" s="2"/>
       <c r="B399" t="s" s="31">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C399" s="45"/>
       <c r="D399" t="s" s="23">
@@ -16292,7 +16301,7 @@
     <row r="400" ht="16" customHeight="1">
       <c r="A400" s="2"/>
       <c r="B400" t="s" s="40">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C400" s="45"/>
       <c r="D400" t="s" s="23">
@@ -16344,7 +16353,7 @@
     <row r="402" ht="16" customHeight="1">
       <c r="A402" s="2"/>
       <c r="B402" t="s" s="31">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C402" s="45"/>
       <c r="D402" t="s" s="23">
@@ -16370,7 +16379,7 @@
     <row r="403" ht="16" customHeight="1">
       <c r="A403" s="2"/>
       <c r="B403" t="s" s="35">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C403" s="12"/>
       <c r="D403" t="s" s="42">
@@ -16396,7 +16405,7 @@
     <row r="404" ht="16" customHeight="1">
       <c r="A404" s="2"/>
       <c r="B404" t="s" s="35">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C404" s="45"/>
       <c r="D404" t="s" s="23">
@@ -16422,13 +16431,13 @@
     <row r="405" ht="16" customHeight="1">
       <c r="A405" s="2"/>
       <c r="B405" t="s" s="40">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C405" t="s" s="44">
         <v>16</v>
       </c>
       <c r="D405" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E405" s="47"/>
       <c r="F405" s="2"/>
@@ -16476,7 +16485,7 @@
     <row r="407" ht="16" customHeight="1">
       <c r="A407" s="4"/>
       <c r="B407" t="s" s="27">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C407" s="11"/>
       <c r="D407" t="s" s="31">
@@ -16502,13 +16511,13 @@
     <row r="408" ht="16" customHeight="1">
       <c r="A408" s="4"/>
       <c r="B408" t="s" s="27">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C408" t="s" s="38">
         <v>16</v>
       </c>
       <c r="D408" t="s" s="35">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
@@ -16530,7 +16539,7 @@
     <row r="409" ht="16" customHeight="1">
       <c r="A409" s="4"/>
       <c r="B409" t="s" s="27">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C409" t="s" s="38">
         <v>16</v>
@@ -16558,7 +16567,7 @@
     <row r="410" ht="16" customHeight="1">
       <c r="A410" s="2"/>
       <c r="B410" t="s" s="42">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C410" s="45"/>
       <c r="D410" t="s" s="23">
@@ -16584,7 +16593,7 @@
     <row r="411" ht="16" customHeight="1">
       <c r="A411" s="4"/>
       <c r="B411" t="s" s="27">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C411" s="11"/>
       <c r="D411" t="s" s="42">
@@ -16610,7 +16619,7 @@
     <row r="412" ht="16" customHeight="1">
       <c r="A412" s="4"/>
       <c r="B412" t="s" s="7">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C412" t="s" s="41">
         <v>16</v>
@@ -16638,7 +16647,7 @@
     <row r="413" ht="16" customHeight="1">
       <c r="A413" s="4"/>
       <c r="B413" t="s" s="7">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C413" t="s" s="41">
         <v>16</v>
@@ -16688,7 +16697,7 @@
     <row r="415" ht="16" customHeight="1">
       <c r="A415" s="4"/>
       <c r="B415" t="s" s="16">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C415" t="s" s="17">
         <v>7</v>
@@ -16716,13 +16725,13 @@
     <row r="416" ht="16" customHeight="1">
       <c r="A416" s="2"/>
       <c r="B416" t="s" s="31">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C416" t="s" s="43">
         <v>16</v>
       </c>
       <c r="D416" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E416" s="47"/>
       <c r="F416" s="2"/>
@@ -16744,13 +16753,13 @@
     <row r="417" ht="16" customHeight="1">
       <c r="A417" s="2"/>
       <c r="B417" t="s" s="35">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C417" t="s" s="44">
         <v>16</v>
       </c>
       <c r="D417" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E417" s="47"/>
       <c r="F417" s="2"/>
@@ -16772,7 +16781,7 @@
     <row r="418" ht="16" customHeight="1">
       <c r="A418" s="2"/>
       <c r="B418" t="s" s="35">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C418" s="45"/>
       <c r="D418" t="s" s="23">
@@ -16798,7 +16807,7 @@
     <row r="419" ht="16" customHeight="1">
       <c r="A419" s="2"/>
       <c r="B419" t="s" s="35">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C419" t="s" s="44">
         <v>16</v>
@@ -16826,7 +16835,7 @@
     <row r="420" ht="16" customHeight="1">
       <c r="A420" s="2"/>
       <c r="B420" t="s" s="35">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C420" s="45"/>
       <c r="D420" t="s" s="23">
@@ -16852,7 +16861,7 @@
     <row r="421" ht="16" customHeight="1">
       <c r="A421" s="2"/>
       <c r="B421" t="s" s="35">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C421" s="45"/>
       <c r="D421" t="s" s="23">
@@ -16878,7 +16887,7 @@
     <row r="422" ht="16" customHeight="1">
       <c r="A422" s="2"/>
       <c r="B422" t="s" s="35">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C422" s="12"/>
       <c r="D422" t="s" s="31">
@@ -16904,7 +16913,7 @@
     <row r="423" ht="16" customHeight="1">
       <c r="A423" s="2"/>
       <c r="B423" t="s" s="40">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C423" t="s" s="35">
         <v>16</v>
@@ -16932,7 +16941,7 @@
     <row r="424" ht="16" customHeight="1">
       <c r="A424" s="4"/>
       <c r="B424" t="s" s="7">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C424" t="s" s="41">
         <v>16</v>
@@ -16960,7 +16969,7 @@
     <row r="425" ht="16" customHeight="1">
       <c r="A425" s="2"/>
       <c r="B425" t="s" s="31">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C425" s="45"/>
       <c r="D425" t="s" s="23">
@@ -16986,7 +16995,7 @@
     <row r="426" ht="16" customHeight="1">
       <c r="A426" s="2"/>
       <c r="B426" t="s" s="40">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C426" t="s" s="44">
         <v>16</v>
@@ -17014,7 +17023,7 @@
     <row r="427" ht="16" customHeight="1">
       <c r="A427" s="4"/>
       <c r="B427" t="s" s="27">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C427" s="11"/>
       <c r="D427" t="s" s="42">
@@ -17040,7 +17049,7 @@
     <row r="428" ht="16" customHeight="1">
       <c r="A428" s="2"/>
       <c r="B428" t="s" s="42">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C428" s="45"/>
       <c r="D428" t="s" s="23">
@@ -17066,7 +17075,7 @@
     <row r="429" ht="16" customHeight="1">
       <c r="A429" s="4"/>
       <c r="B429" t="s" s="27">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C429" s="11"/>
       <c r="D429" t="s" s="31">
@@ -17092,7 +17101,7 @@
     <row r="430" ht="16" customHeight="1">
       <c r="A430" s="2"/>
       <c r="B430" t="s" s="31">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C430" t="s" s="35">
         <v>16</v>
@@ -17120,7 +17129,7 @@
     <row r="431" ht="16" customHeight="1">
       <c r="A431" s="2"/>
       <c r="B431" t="s" s="35">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C431" t="s" s="44">
         <v>16</v>
@@ -17148,7 +17157,7 @@
     <row r="432" ht="16" customHeight="1">
       <c r="A432" s="2"/>
       <c r="B432" t="s" s="35">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C432" t="s" s="44">
         <v>16</v>
@@ -17176,7 +17185,7 @@
     <row r="433" ht="16" customHeight="1">
       <c r="A433" s="2"/>
       <c r="B433" t="s" s="35">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C433" s="45"/>
       <c r="D433" t="s" s="23">
@@ -17202,7 +17211,7 @@
     <row r="434" ht="16" customHeight="1">
       <c r="A434" s="2"/>
       <c r="B434" t="s" s="40">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C434" s="45"/>
       <c r="D434" t="s" s="23">
@@ -17304,7 +17313,7 @@
     <row r="438" ht="16" customHeight="1">
       <c r="A438" s="4"/>
       <c r="B438" t="s" s="16">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C438" t="s" s="17">
         <v>7</v>
@@ -17332,7 +17341,7 @@
     <row r="439" ht="16" customHeight="1">
       <c r="A439" s="2"/>
       <c r="B439" t="s" s="31">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C439" t="s" s="31">
         <v>16</v>
@@ -17360,13 +17369,13 @@
     <row r="440" ht="16" customHeight="1">
       <c r="A440" s="2"/>
       <c r="B440" t="s" s="40">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C440" t="s" s="44">
         <v>16</v>
       </c>
       <c r="D440" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E440" s="47"/>
       <c r="F440" s="2"/>
@@ -17416,11 +17425,11 @@
     <row r="442" ht="16" customHeight="1">
       <c r="A442" s="2"/>
       <c r="B442" t="s" s="42">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C442" s="12"/>
       <c r="D442" t="s" s="42">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
@@ -17470,7 +17479,7 @@
     <row r="444" ht="16" customHeight="1">
       <c r="A444" s="4"/>
       <c r="B444" t="s" s="27">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C444" t="s" s="38">
         <v>16</v>
@@ -17498,7 +17507,7 @@
     <row r="445" ht="16" customHeight="1">
       <c r="A445" s="2"/>
       <c r="B445" t="s" s="42">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C445" t="s" s="44">
         <v>16</v>
@@ -17552,7 +17561,7 @@
     <row r="447" ht="16" customHeight="1">
       <c r="A447" s="4"/>
       <c r="B447" t="s" s="7">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C447" t="s" s="41">
         <v>16</v>
@@ -17580,7 +17589,7 @@
     <row r="448" ht="16" customHeight="1">
       <c r="A448" s="4"/>
       <c r="B448" t="s" s="27">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C448" t="s" s="38">
         <v>16</v>
@@ -17608,7 +17617,7 @@
     <row r="449" ht="16" customHeight="1">
       <c r="A449" s="2"/>
       <c r="B449" t="s" s="42">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C449" s="45"/>
       <c r="D449" t="s" s="23">
@@ -17634,7 +17643,7 @@
     <row r="450" ht="16" customHeight="1">
       <c r="A450" s="4"/>
       <c r="B450" t="s" s="7">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C450" t="s" s="41">
         <v>16</v>
@@ -17662,7 +17671,7 @@
     <row r="451" ht="16" customHeight="1">
       <c r="A451" s="4"/>
       <c r="B451" t="s" s="27">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C451" t="s" s="38">
         <v>16</v>
@@ -17690,13 +17699,13 @@
     <row r="452" ht="16" customHeight="1">
       <c r="A452" s="2"/>
       <c r="B452" t="s" s="42">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C452" t="s" s="44">
         <v>16</v>
       </c>
       <c r="D452" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E452" s="47"/>
       <c r="F452" s="2"/>
@@ -17718,7 +17727,7 @@
     <row r="453" ht="16" customHeight="1">
       <c r="A453" s="4"/>
       <c r="B453" t="s" s="7">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C453" t="s" s="41">
         <v>16</v>
@@ -17750,7 +17759,7 @@
       </c>
       <c r="C454" s="11"/>
       <c r="D454" t="s" s="42">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
@@ -17772,7 +17781,7 @@
     <row r="455" ht="16" customHeight="1">
       <c r="A455" s="2"/>
       <c r="B455" t="s" s="42">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C455" s="45"/>
       <c r="D455" t="s" s="23">
@@ -17852,7 +17861,7 @@
     <row r="458" ht="16" customHeight="1">
       <c r="A458" s="2"/>
       <c r="B458" t="s" s="31">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C458" t="s" s="35">
         <v>16</v>
@@ -17880,7 +17889,7 @@
     <row r="459" ht="16" customHeight="1">
       <c r="A459" s="2"/>
       <c r="B459" t="s" s="35">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C459" t="s" s="44">
         <v>16</v>
@@ -17930,7 +17939,7 @@
     <row r="461" ht="16" customHeight="1">
       <c r="A461" s="4"/>
       <c r="B461" t="s" s="16">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C461" t="s" s="17">
         <v>7</v>
@@ -17958,7 +17967,7 @@
     <row r="462" ht="16" customHeight="1">
       <c r="A462" s="2"/>
       <c r="B462" t="s" s="31">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C462" s="49"/>
       <c r="D462" t="s" s="23">
@@ -17984,7 +17993,7 @@
     <row r="463" ht="16" customHeight="1">
       <c r="A463" s="2"/>
       <c r="B463" t="s" s="40">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C463" s="45"/>
       <c r="D463" t="s" s="23">
@@ -18038,7 +18047,7 @@
     <row r="465" ht="16" customHeight="1">
       <c r="A465" s="2"/>
       <c r="B465" t="s" s="42">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C465" t="s" s="35">
         <v>16</v>
@@ -18066,7 +18075,7 @@
     <row r="466" ht="16" customHeight="1">
       <c r="A466" s="4"/>
       <c r="B466" t="s" s="27">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C466" t="s" s="38">
         <v>16</v>
@@ -18094,7 +18103,7 @@
     <row r="467" ht="16" customHeight="1">
       <c r="A467" s="2"/>
       <c r="B467" t="s" s="42">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C467" s="12"/>
       <c r="D467" t="s" s="40">
@@ -18120,7 +18129,7 @@
     <row r="468" ht="16" customHeight="1">
       <c r="A468" s="4"/>
       <c r="B468" t="s" s="7">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C468" t="s" s="41">
         <v>16</v>
@@ -18148,7 +18157,7 @@
     <row r="469" ht="16" customHeight="1">
       <c r="A469" s="2"/>
       <c r="B469" t="s" s="31">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C469" s="12"/>
       <c r="D469" t="s" s="42">
@@ -18174,7 +18183,7 @@
     <row r="470" ht="16" customHeight="1">
       <c r="A470" s="2"/>
       <c r="B470" t="s" s="35">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C470" t="s" s="44">
         <v>16</v>
@@ -18202,7 +18211,7 @@
     <row r="471" ht="16" customHeight="1">
       <c r="A471" s="2"/>
       <c r="B471" t="s" s="35">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C471" s="12"/>
       <c r="D471" t="s" s="42">
@@ -18228,11 +18237,11 @@
     <row r="472" ht="16" customHeight="1">
       <c r="A472" s="2"/>
       <c r="B472" t="s" s="35">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C472" s="45"/>
       <c r="D472" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E472" s="47"/>
       <c r="F472" s="2"/>
@@ -18254,7 +18263,7 @@
     <row r="473" ht="16" customHeight="1">
       <c r="A473" s="2"/>
       <c r="B473" t="s" s="35">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C473" s="45"/>
       <c r="D473" t="s" s="23">
@@ -18280,11 +18289,11 @@
     <row r="474" ht="16" customHeight="1">
       <c r="A474" s="2"/>
       <c r="B474" t="s" s="35">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C474" s="12"/>
       <c r="D474" t="s" s="31">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
@@ -18306,7 +18315,7 @@
     <row r="475" ht="16" customHeight="1">
       <c r="A475" s="2"/>
       <c r="B475" t="s" s="35">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C475" s="12"/>
       <c r="D475" t="s" s="40">
@@ -18332,11 +18341,11 @@
     <row r="476" ht="16" customHeight="1">
       <c r="A476" s="2"/>
       <c r="B476" t="s" s="35">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C476" s="45"/>
       <c r="D476" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E476" s="47"/>
       <c r="F476" s="2"/>
@@ -18358,7 +18367,7 @@
     <row r="477" ht="16" customHeight="1">
       <c r="A477" s="2"/>
       <c r="B477" t="s" s="35">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C477" s="12"/>
       <c r="D477" t="s" s="42">
@@ -18384,11 +18393,11 @@
     <row r="478" ht="16" customHeight="1">
       <c r="A478" s="2"/>
       <c r="B478" t="s" s="35">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C478" s="45"/>
       <c r="D478" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E478" s="47"/>
       <c r="F478" s="2"/>
@@ -18410,7 +18419,7 @@
     <row r="479" ht="16" customHeight="1">
       <c r="A479" s="2"/>
       <c r="B479" t="s" s="35">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C479" s="12"/>
       <c r="D479" t="s" s="31">
@@ -18436,7 +18445,7 @@
     <row r="480" ht="16" customHeight="1">
       <c r="A480" s="2"/>
       <c r="B480" t="s" s="35">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C480" s="12"/>
       <c r="D480" t="s" s="35">
@@ -18462,7 +18471,7 @@
     <row r="481" ht="16" customHeight="1">
       <c r="A481" s="2"/>
       <c r="B481" t="s" s="35">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C481" s="12"/>
       <c r="D481" t="s" s="35">
@@ -18488,7 +18497,7 @@
     <row r="482" ht="16" customHeight="1">
       <c r="A482" s="2"/>
       <c r="B482" t="s" s="35">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C482" t="s" s="35">
         <v>16</v>
@@ -18538,7 +18547,7 @@
     <row r="484" ht="16" customHeight="1">
       <c r="A484" s="4"/>
       <c r="B484" t="s" s="16">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C484" t="s" s="17">
         <v>7</v>
@@ -18566,7 +18575,7 @@
     <row r="485" ht="16" customHeight="1">
       <c r="A485" s="2"/>
       <c r="B485" t="s" s="42">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C485" t="s" s="43">
         <v>16</v>
@@ -18594,7 +18603,7 @@
     <row r="486" ht="16" customHeight="1">
       <c r="A486" s="4"/>
       <c r="B486" t="s" s="7">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C486" t="s" s="41">
         <v>16</v>
@@ -18678,13 +18687,13 @@
     <row r="489" ht="16" customHeight="1">
       <c r="A489" s="2"/>
       <c r="B489" t="s" s="31">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C489" t="s" s="44">
         <v>16</v>
       </c>
       <c r="D489" t="s" s="23">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E489" s="47"/>
       <c r="F489" s="2"/>
@@ -18706,7 +18715,7 @@
     <row r="490" ht="16" customHeight="1">
       <c r="A490" s="2"/>
       <c r="B490" t="s" s="35">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C490" t="s" s="44">
         <v>16</v>
@@ -18734,7 +18743,7 @@
     <row r="491" ht="16" customHeight="1">
       <c r="A491" s="2"/>
       <c r="B491" t="s" s="40">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C491" s="45"/>
       <c r="D491" t="s" s="23">
@@ -18786,7 +18795,7 @@
     <row r="493" ht="16" customHeight="1">
       <c r="A493" s="2"/>
       <c r="B493" t="s" s="31">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C493" s="12"/>
       <c r="D493" t="s" s="31">
@@ -18812,7 +18821,7 @@
     <row r="494" ht="16" customHeight="1">
       <c r="A494" s="2"/>
       <c r="B494" t="s" s="35">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C494" t="s" s="35">
         <v>16</v>
@@ -18840,7 +18849,7 @@
     <row r="495" ht="16" customHeight="1">
       <c r="A495" s="2"/>
       <c r="B495" t="s" s="35">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C495" s="12"/>
       <c r="D495" t="s" s="35">
@@ -18866,7 +18875,7 @@
     <row r="496" ht="16" customHeight="1">
       <c r="A496" s="2"/>
       <c r="B496" t="s" s="35">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C496" t="s" s="35">
         <v>16</v>
@@ -18894,7 +18903,7 @@
     <row r="497" ht="16" customHeight="1">
       <c r="A497" s="2"/>
       <c r="B497" t="s" s="35">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C497" t="s" s="44">
         <v>16</v>
@@ -18922,7 +18931,7 @@
     <row r="498" ht="16" customHeight="1">
       <c r="A498" s="2"/>
       <c r="B498" t="s" s="35">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C498" t="s" s="35">
         <v>16</v>
@@ -18950,7 +18959,7 @@
     <row r="499" ht="16" customHeight="1">
       <c r="A499" s="2"/>
       <c r="B499" t="s" s="35">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C499" t="s" s="35">
         <v>16</v>
@@ -18978,7 +18987,7 @@
     <row r="500" ht="16" customHeight="1">
       <c r="A500" s="2"/>
       <c r="B500" t="s" s="40">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C500" t="s" s="44">
         <v>16</v>
@@ -19006,7 +19015,7 @@
     <row r="501" ht="16" customHeight="1">
       <c r="A501" s="4"/>
       <c r="B501" t="s" s="27">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C501" t="s" s="38">
         <v>16</v>
@@ -19034,7 +19043,7 @@
     <row r="502" ht="16" customHeight="1">
       <c r="A502" s="4"/>
       <c r="B502" t="s" s="7">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C502" t="s" s="41">
         <v>16</v>
@@ -19062,7 +19071,7 @@
     <row r="503" ht="16" customHeight="1">
       <c r="A503" s="4"/>
       <c r="B503" t="s" s="27">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C503" t="s" s="38">
         <v>16</v>
@@ -19090,7 +19099,7 @@
     <row r="504" ht="16" customHeight="1">
       <c r="A504" s="4"/>
       <c r="B504" t="s" s="7">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C504" t="s" s="41">
         <v>16</v>
@@ -19118,7 +19127,7 @@
     <row r="505" ht="16" customHeight="1">
       <c r="A505" s="4"/>
       <c r="B505" t="s" s="27">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C505" t="s" s="38">
         <v>16</v>
@@ -19168,7 +19177,7 @@
     <row r="507" ht="16" customHeight="1">
       <c r="A507" s="4"/>
       <c r="B507" t="s" s="16">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C507" t="s" s="17">
         <v>7</v>
@@ -19196,7 +19205,7 @@
     <row r="508" ht="16" customHeight="1">
       <c r="A508" s="2"/>
       <c r="B508" t="s" s="42">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C508" t="s" s="43">
         <v>16</v>
@@ -19224,7 +19233,7 @@
     <row r="509" ht="16" customHeight="1">
       <c r="A509" s="4"/>
       <c r="B509" t="s" s="27">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C509" t="s" s="38">
         <v>16</v>
@@ -19308,7 +19317,7 @@
     <row r="512" ht="16" customHeight="1">
       <c r="A512" s="4"/>
       <c r="B512" t="s" s="27">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C512" t="s" s="38">
         <v>16</v>
@@ -19336,7 +19345,7 @@
     <row r="513" ht="16" customHeight="1">
       <c r="A513" s="4"/>
       <c r="B513" t="s" s="27">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C513" t="s" s="38">
         <v>16</v>
@@ -19364,7 +19373,7 @@
     <row r="514" ht="16" customHeight="1">
       <c r="A514" s="4"/>
       <c r="B514" t="s" s="27">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C514" t="s" s="38">
         <v>16</v>
@@ -19392,7 +19401,7 @@
     <row r="515" ht="16" customHeight="1">
       <c r="A515" s="4"/>
       <c r="B515" t="s" s="7">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C515" t="s" s="41">
         <v>16</v>
@@ -19420,7 +19429,7 @@
     <row r="516" ht="16" customHeight="1">
       <c r="A516" s="4"/>
       <c r="B516" t="s" s="50">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C516" t="s" s="38">
         <v>16</v>

--- a/games/nexonjojo/jojo.xlsx
+++ b/games/nexonjojo/jojo.xlsx
@@ -17505,7 +17505,9 @@
       <c r="T444" s="2"/>
     </row>
     <row r="445" ht="16" customHeight="1">
-      <c r="A445" s="2"/>
+      <c r="A445" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B445" t="s" s="42">
         <v>591</v>
       </c>

--- a/games/nexonjojo/jojo.xlsx
+++ b/games/nexonjojo/jojo.xlsx
@@ -5449,7 +5449,9 @@
       <c r="D39" t="s" s="35">
         <v>227</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="F39" t="s" s="7">
         <v>228</v>
       </c>
@@ -5503,7 +5505,9 @@
       <c r="D40" t="s" s="40">
         <v>11</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="F40" t="s" s="7">
         <v>234</v>
       </c>
@@ -5555,7 +5559,9 @@
       <c r="D41" t="s" s="23">
         <v>51</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" t="s" s="19">
+        <v>16</v>
+      </c>
       <c r="F41" t="s" s="7">
         <v>239</v>
       </c>
@@ -5609,7 +5615,9 @@
       <c r="D42" t="s" s="23">
         <v>12</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" t="s" s="19">
+        <v>16</v>
+      </c>
       <c r="F42" t="s" s="7">
         <v>246</v>
       </c>
@@ -5753,7 +5761,9 @@
       <c r="T44" s="37"/>
     </row>
     <row r="45" ht="16" customHeight="1">
-      <c r="A45" s="2"/>
+      <c r="A45" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B45" t="s" s="42">
         <v>263</v>
       </c>
@@ -6385,7 +6395,9 @@
       <c r="T56" s="37"/>
     </row>
     <row r="57" ht="16" customHeight="1">
-      <c r="A57" s="2"/>
+      <c r="A57" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B57" t="s" s="42">
         <v>324</v>
       </c>
@@ -6543,7 +6555,9 @@
       <c r="T59" s="37"/>
     </row>
     <row r="60" ht="16" customHeight="1">
-      <c r="A60" s="4"/>
+      <c r="A60" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B60" t="s" s="7">
         <v>88</v>
       </c>
@@ -6707,7 +6721,9 @@
       <c r="T62" s="37"/>
     </row>
     <row r="63" ht="16" customHeight="1">
-      <c r="A63" s="2"/>
+      <c r="A63" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B63" t="s" s="40">
         <v>354</v>
       </c>
@@ -7427,7 +7443,9 @@
       <c r="T77" s="2"/>
     </row>
     <row r="78" ht="16" customHeight="1">
-      <c r="A78" s="2"/>
+      <c r="A78" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B78" t="s" s="42">
         <v>412</v>
       </c>
@@ -7817,7 +7835,9 @@
       <c r="T89" s="2"/>
     </row>
     <row r="90" ht="16" customHeight="1">
-      <c r="A90" s="2"/>
+      <c r="A90" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B90" t="s" s="35">
         <v>429</v>
       </c>
@@ -7849,7 +7869,9 @@
       <c r="T90" s="2"/>
     </row>
     <row r="91" ht="16" customHeight="1">
-      <c r="A91" s="2"/>
+      <c r="A91" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B91" t="s" s="35">
         <v>431</v>
       </c>
@@ -8887,7 +8909,9 @@
       <c r="T127" s="2"/>
     </row>
     <row r="128" ht="16" customHeight="1">
-      <c r="A128" s="2"/>
+      <c r="A128" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B128" t="s" s="40">
         <v>450</v>
       </c>
@@ -9023,7 +9047,9 @@
       <c r="T132" s="2"/>
     </row>
     <row r="133" ht="16" customHeight="1">
-      <c r="A133" s="4"/>
+      <c r="A133" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B133" t="s" s="7">
         <v>247</v>
       </c>
@@ -9075,7 +9101,9 @@
       <c r="T134" s="2"/>
     </row>
     <row r="135" ht="16" customHeight="1">
-      <c r="A135" s="2"/>
+      <c r="A135" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B135" t="s" s="31">
         <v>452</v>
       </c>
@@ -9881,7 +9909,9 @@
       <c r="T164" s="2"/>
     </row>
     <row r="165" ht="16" customHeight="1">
-      <c r="A165" s="4"/>
+      <c r="A165" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B165" t="s" s="7">
         <v>386</v>
       </c>
@@ -10611,7 +10641,9 @@
       <c r="T190" s="2"/>
     </row>
     <row r="191" ht="16" customHeight="1">
-      <c r="A191" s="4"/>
+      <c r="A191" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B191" t="s" s="7">
         <v>202</v>
       </c>
@@ -11065,7 +11097,9 @@
       <c r="T206" s="2"/>
     </row>
     <row r="207" ht="16" customHeight="1">
-      <c r="A207" s="2"/>
+      <c r="A207" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B207" t="s" s="35">
         <v>473</v>
       </c>
@@ -11237,7 +11271,9 @@
       <c r="T212" s="2"/>
     </row>
     <row r="213" ht="16" customHeight="1">
-      <c r="A213" s="2"/>
+      <c r="A213" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B213" t="s" s="31">
         <v>475</v>
       </c>
@@ -11265,7 +11301,9 @@
       <c r="T213" s="2"/>
     </row>
     <row r="214" ht="16" customHeight="1">
-      <c r="A214" s="2"/>
+      <c r="A214" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B214" t="s" s="40">
         <v>476</v>
       </c>
@@ -11347,7 +11385,9 @@
       <c r="T216" s="2"/>
     </row>
     <row r="217" ht="16" customHeight="1">
-      <c r="A217" s="4"/>
+      <c r="A217" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B217" t="s" s="7">
         <v>170</v>
       </c>
@@ -11429,7 +11469,9 @@
       <c r="T219" s="2"/>
     </row>
     <row r="220" ht="16" customHeight="1">
-      <c r="A220" s="2"/>
+      <c r="A220" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B220" t="s" s="42">
         <v>477</v>
       </c>
@@ -12287,7 +12329,9 @@
       <c r="T251" s="2"/>
     </row>
     <row r="252" ht="16" customHeight="1">
-      <c r="A252" s="2"/>
+      <c r="A252" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B252" t="s" s="40">
         <v>490</v>
       </c>
@@ -13315,7 +13359,9 @@
       <c r="T289" s="2"/>
     </row>
     <row r="290" ht="16" customHeight="1">
-      <c r="A290" s="2"/>
+      <c r="A290" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B290" t="s" s="31">
         <v>507</v>
       </c>
@@ -13705,7 +13751,9 @@
       <c r="T303" s="2"/>
     </row>
     <row r="304" ht="16" customHeight="1">
-      <c r="A304" s="2"/>
+      <c r="A304" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B304" t="s" s="35">
         <v>516</v>
       </c>
@@ -14685,7 +14733,9 @@
       <c r="T339" s="2"/>
     </row>
     <row r="340" ht="16" customHeight="1">
-      <c r="A340" s="2"/>
+      <c r="A340" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B340" t="s" s="42">
         <v>532</v>
       </c>
@@ -14739,7 +14789,9 @@
       <c r="T341" s="2"/>
     </row>
     <row r="342" ht="16" customHeight="1">
-      <c r="A342" s="2"/>
+      <c r="A342" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B342" t="s" s="42">
         <v>533</v>
       </c>
@@ -15089,7 +15141,9 @@
       <c r="T354" s="2"/>
     </row>
     <row r="355" ht="16" customHeight="1">
-      <c r="A355" s="4"/>
+      <c r="A355" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B355" t="s" s="27">
         <v>72</v>
       </c>
@@ -16299,7 +16353,9 @@
       <c r="T399" s="2"/>
     </row>
     <row r="400" ht="16" customHeight="1">
-      <c r="A400" s="2"/>
+      <c r="A400" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B400" t="s" s="40">
         <v>565</v>
       </c>
@@ -17339,7 +17395,9 @@
       <c r="T438" s="2"/>
     </row>
     <row r="439" ht="16" customHeight="1">
-      <c r="A439" s="2"/>
+      <c r="A439" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B439" t="s" s="31">
         <v>538</v>
       </c>
@@ -17395,7 +17453,9 @@
       <c r="T440" s="2"/>
     </row>
     <row r="441" ht="16" customHeight="1">
-      <c r="A441" s="4"/>
+      <c r="A441" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B441" t="s" s="7">
         <v>191</v>
       </c>
@@ -17699,7 +17759,9 @@
       <c r="T451" s="2"/>
     </row>
     <row r="452" ht="16" customHeight="1">
-      <c r="A452" s="2"/>
+      <c r="A452" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B452" t="s" s="42">
         <v>593</v>
       </c>
@@ -17727,7 +17789,9 @@
       <c r="T452" s="2"/>
     </row>
     <row r="453" ht="16" customHeight="1">
-      <c r="A453" s="4"/>
+      <c r="A453" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B453" t="s" s="7">
         <v>235</v>
       </c>
@@ -18631,7 +18695,9 @@
       <c r="T486" s="2"/>
     </row>
     <row r="487" ht="16" customHeight="1">
-      <c r="A487" s="4"/>
+      <c r="A487" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B487" t="s" s="7">
         <v>196</v>
       </c>
@@ -18659,7 +18725,9 @@
       <c r="T487" s="2"/>
     </row>
     <row r="488" ht="16" customHeight="1">
-      <c r="A488" s="4"/>
+      <c r="A488" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B488" t="s" s="7">
         <v>82</v>
       </c>

--- a/games/nexonjojo/jojo.xlsx
+++ b/games/nexonjojo/jojo.xlsx
@@ -14055,7 +14055,9 @@
       <c r="T314" s="2"/>
     </row>
     <row r="315" ht="16" customHeight="1">
-      <c r="A315" s="4"/>
+      <c r="A315" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B315" t="s" s="27">
         <v>376</v>
       </c>
@@ -17649,7 +17651,9 @@
       <c r="T447" s="2"/>
     </row>
     <row r="448" ht="16" customHeight="1">
-      <c r="A448" s="4"/>
+      <c r="A448" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B448" t="s" s="27">
         <v>387</v>
       </c>
@@ -18639,7 +18643,9 @@
       <c r="T484" s="2"/>
     </row>
     <row r="485" ht="16" customHeight="1">
-      <c r="A485" s="2"/>
+      <c r="A485" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B485" t="s" s="42">
         <v>617</v>
       </c>
@@ -18943,7 +18949,9 @@
       <c r="T495" s="2"/>
     </row>
     <row r="496" ht="16" customHeight="1">
-      <c r="A496" s="2"/>
+      <c r="A496" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B496" t="s" s="35">
         <v>624</v>
       </c>
@@ -19027,7 +19035,9 @@
       <c r="T498" s="2"/>
     </row>
     <row r="499" ht="16" customHeight="1">
-      <c r="A499" s="2"/>
+      <c r="A499" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B499" t="s" s="35">
         <v>627</v>
       </c>
@@ -19055,7 +19065,9 @@
       <c r="T499" s="2"/>
     </row>
     <row r="500" ht="16" customHeight="1">
-      <c r="A500" s="2"/>
+      <c r="A500" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B500" t="s" s="40">
         <v>628</v>
       </c>
@@ -19111,7 +19123,9 @@
       <c r="T501" s="2"/>
     </row>
     <row r="502" ht="16" customHeight="1">
-      <c r="A502" s="4"/>
+      <c r="A502" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B502" t="s" s="7">
         <v>327</v>
       </c>
@@ -19195,7 +19209,9 @@
       <c r="T504" s="2"/>
     </row>
     <row r="505" ht="16" customHeight="1">
-      <c r="A505" s="4"/>
+      <c r="A505" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B505" t="s" s="27">
         <v>330</v>
       </c>

--- a/games/nexonjojo/jojo.xlsx
+++ b/games/nexonjojo/jojo.xlsx
@@ -7253,7 +7253,9 @@
       <c r="T72" s="37"/>
     </row>
     <row r="73" ht="16" customHeight="1">
-      <c r="A73" s="2"/>
+      <c r="A73" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B73" t="s" s="40">
         <v>404</v>
       </c>
@@ -7305,7 +7307,9 @@
       <c r="T73" s="37"/>
     </row>
     <row r="74" ht="16" customHeight="1">
-      <c r="A74" s="4"/>
+      <c r="A74" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B74" t="s" s="27">
         <v>302</v>
       </c>
@@ -9075,7 +9079,9 @@
       <c r="T133" s="2"/>
     </row>
     <row r="134" ht="16" customHeight="1">
-      <c r="A134" s="4"/>
+      <c r="A134" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B134" t="s" s="27">
         <v>289</v>
       </c>
@@ -9129,7 +9135,9 @@
       <c r="T135" s="2"/>
     </row>
     <row r="136" ht="16" customHeight="1">
-      <c r="A136" s="2"/>
+      <c r="A136" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B136" t="s" s="35">
         <v>453</v>
       </c>
@@ -9257,7 +9265,9 @@
       <c r="T140" s="2"/>
     </row>
     <row r="141" ht="16" customHeight="1">
-      <c r="A141" s="4"/>
+      <c r="A141" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B141" t="s" s="27">
         <v>401</v>
       </c>
@@ -9501,7 +9511,9 @@
       <c r="T149" s="2"/>
     </row>
     <row r="150" ht="16" customHeight="1">
-      <c r="A150" s="4"/>
+      <c r="A150" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B150" t="s" s="27">
         <v>47</v>
       </c>
@@ -9553,7 +9565,9 @@
       <c r="T151" s="2"/>
     </row>
     <row r="152" ht="16" customHeight="1">
-      <c r="A152" s="2"/>
+      <c r="A152" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B152" t="s" s="42">
         <v>458</v>
       </c>
@@ -10167,7 +10181,9 @@
       <c r="T173" s="2"/>
     </row>
     <row r="174" ht="16" customHeight="1">
-      <c r="A174" s="4"/>
+      <c r="A174" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B174" t="s" s="27">
         <v>383</v>
       </c>
@@ -10871,7 +10887,9 @@
       <c r="T198" s="2"/>
     </row>
     <row r="199" ht="16" customHeight="1">
-      <c r="A199" s="2"/>
+      <c r="A199" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B199" t="s" s="42">
         <v>470</v>
       </c>
@@ -11329,7 +11347,9 @@
       <c r="T214" s="2"/>
     </row>
     <row r="215" ht="16" customHeight="1">
-      <c r="A215" s="4"/>
+      <c r="A215" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B215" t="s" s="27">
         <v>102</v>
       </c>
@@ -11601,7 +11621,9 @@
       <c r="T224" s="2"/>
     </row>
     <row r="225" ht="16" customHeight="1">
-      <c r="A225" s="4"/>
+      <c r="A225" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B225" t="s" s="27">
         <v>308</v>
       </c>
@@ -11707,7 +11729,9 @@
       <c r="T228" s="2"/>
     </row>
     <row r="229" ht="16" customHeight="1">
-      <c r="A229" s="2"/>
+      <c r="A229" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B229" t="s" s="35">
         <v>480</v>
       </c>
@@ -12107,7 +12131,9 @@
       <c r="T243" s="2"/>
     </row>
     <row r="244" ht="16" customHeight="1">
-      <c r="A244" s="2"/>
+      <c r="A244" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B244" t="s" s="42">
         <v>487</v>
       </c>
@@ -12163,7 +12189,9 @@
       <c r="T245" s="2"/>
     </row>
     <row r="246" ht="16" customHeight="1">
-      <c r="A246" s="4"/>
+      <c r="A246" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B246" t="s" s="7">
         <v>223</v>
       </c>
@@ -12387,7 +12415,9 @@
       <c r="T253" s="2"/>
     </row>
     <row r="254" ht="16" customHeight="1">
-      <c r="A254" s="4"/>
+      <c r="A254" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B254" t="s" s="27">
         <v>284</v>
       </c>
@@ -12605,7 +12635,9 @@
       <c r="T261" s="2"/>
     </row>
     <row r="262" ht="16" customHeight="1">
-      <c r="A262" s="4"/>
+      <c r="A262" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B262" t="s" s="27">
         <v>276</v>
       </c>
@@ -12741,7 +12773,9 @@
       <c r="T266" s="2"/>
     </row>
     <row r="267" ht="16" customHeight="1">
-      <c r="A267" s="2"/>
+      <c r="A267" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B267" t="s" s="42">
         <v>496</v>
       </c>
@@ -12769,7 +12803,9 @@
       <c r="T267" s="2"/>
     </row>
     <row r="268" ht="16" customHeight="1">
-      <c r="A268" s="4"/>
+      <c r="A268" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B268" t="s" s="27">
         <v>187</v>
       </c>
@@ -14113,7 +14149,9 @@
       <c r="T316" s="2"/>
     </row>
     <row r="317" ht="16" customHeight="1">
-      <c r="A317" s="4"/>
+      <c r="A317" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B317" t="s" s="27">
         <v>393</v>
       </c>
@@ -14849,7 +14887,9 @@
       <c r="T343" s="2"/>
     </row>
     <row r="344" ht="16" customHeight="1">
-      <c r="A344" s="4"/>
+      <c r="A344" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B344" t="s" s="27">
         <v>367</v>
       </c>
@@ -15809,7 +15849,9 @@
       <c r="T379" s="2"/>
     </row>
     <row r="380" ht="16" customHeight="1">
-      <c r="A380" s="2"/>
+      <c r="A380" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B380" t="s" s="40">
         <v>556</v>
       </c>
@@ -16215,7 +16257,9 @@
       <c r="T394" s="2"/>
     </row>
     <row r="395" ht="16" customHeight="1">
-      <c r="A395" s="2"/>
+      <c r="A395" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B395" t="s" s="35">
         <v>562</v>
       </c>
@@ -16329,7 +16373,9 @@
       <c r="T398" s="2"/>
     </row>
     <row r="399" ht="16" customHeight="1">
-      <c r="A399" s="2"/>
+      <c r="A399" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B399" t="s" s="31">
         <v>564</v>
       </c>
@@ -16781,7 +16827,9 @@
       <c r="T415" s="2"/>
     </row>
     <row r="416" ht="16" customHeight="1">
-      <c r="A416" s="2"/>
+      <c r="A416" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B416" t="s" s="31">
         <v>572</v>
       </c>
@@ -17157,7 +17205,9 @@
       <c r="T429" s="2"/>
     </row>
     <row r="430" ht="16" customHeight="1">
-      <c r="A430" s="2"/>
+      <c r="A430" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B430" t="s" s="31">
         <v>583</v>
       </c>
@@ -17293,7 +17343,9 @@
       <c r="T434" s="2"/>
     </row>
     <row r="435" ht="16" customHeight="1">
-      <c r="A435" s="4"/>
+      <c r="A435" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B435" t="s" s="27">
         <v>59</v>
       </c>
@@ -17511,7 +17563,9 @@
       <c r="T442" s="2"/>
     </row>
     <row r="443" ht="16" customHeight="1">
-      <c r="A443" s="4"/>
+      <c r="A443" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B443" t="s" s="7">
         <v>45</v>
       </c>
@@ -17735,7 +17789,9 @@
       <c r="T450" s="2"/>
     </row>
     <row r="451" ht="16" customHeight="1">
-      <c r="A451" s="4"/>
+      <c r="A451" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B451" t="s" s="27">
         <v>364</v>
       </c>
@@ -19289,7 +19345,9 @@
       <c r="T507" s="2"/>
     </row>
     <row r="508" ht="16" customHeight="1">
-      <c r="A508" s="2"/>
+      <c r="A508" t="s" s="30">
+        <v>16</v>
+      </c>
       <c r="B508" t="s" s="42">
         <v>630</v>
       </c>
@@ -19401,7 +19459,9 @@
       <c r="T511" s="2"/>
     </row>
     <row r="512" ht="16" customHeight="1">
-      <c r="A512" s="4"/>
+      <c r="A512" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B512" t="s" s="27">
         <v>231</v>
       </c>
@@ -19513,7 +19573,9 @@
       <c r="T515" s="2"/>
     </row>
     <row r="516" ht="16" customHeight="1">
-      <c r="A516" s="4"/>
+      <c r="A516" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="B516" t="s" s="50">
         <v>321</v>
       </c>
